--- a/笔记仓库/香港学校/全港学校列表.xlsx
+++ b/笔记仓库/香港学校/全港学校列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12060"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="中小学" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">中小学!$A$1:$P$1154</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'中学 Band'!$A$1:$G$478</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24820,6 +24821,14 @@
             <v>黃大仙官立小學</v>
           </cell>
         </row>
+        <row r="524">
+          <cell r="A524" t="str">
+            <v>2A-1C</v>
+          </cell>
+          <cell r="B524" t="str">
+            <v>香港華人基督教聯會真道書院</v>
+          </cell>
+        </row>
       </sheetData>
     </sheetDataSet>
   </externalBook>
@@ -25100,7 +25109,7 @@
     <col min="2" max="2" width="19.75" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="35" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="34.75" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="11.375" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="6.625" customWidth="1"/>
     <col min="7" max="7" width="30.7083333333333" customWidth="1"/>
     <col min="8" max="8" width="14.625" customWidth="1"/>
@@ -27301,7 +27310,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" hidden="1" spans="1:16">
       <c r="A43" t="s">
         <v>283</v>
       </c>
@@ -47809,7 +47818,7 @@
         <v>2639</v>
       </c>
     </row>
-    <row r="437" hidden="1" spans="1:16">
+    <row r="437" spans="1:16">
       <c r="A437" t="s">
         <v>2640</v>
       </c>
@@ -48017,7 +48026,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="441" hidden="1" spans="1:16">
+    <row r="441" spans="1:16">
       <c r="A441" t="s">
         <v>2661</v>
       </c>
@@ -49161,7 +49170,7 @@
         <v>2789</v>
       </c>
     </row>
-    <row r="463" hidden="1" spans="1:16">
+    <row r="463" spans="1:16">
       <c r="A463" t="s">
         <v>2790</v>
       </c>
@@ -49421,7 +49430,7 @@
         <v>2819</v>
       </c>
     </row>
-    <row r="468" hidden="1" spans="1:16">
+    <row r="468" spans="1:16">
       <c r="A468" t="s">
         <v>2820</v>
       </c>
@@ -49733,7 +49742,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="474" hidden="1" spans="1:16">
+    <row r="474" spans="1:16">
       <c r="A474" t="s">
         <v>2856</v>
       </c>
@@ -50097,7 +50106,7 @@
         <v>2896</v>
       </c>
     </row>
-    <row r="481" hidden="1" spans="1:16">
+    <row r="481" spans="1:16">
       <c r="A481" t="s">
         <v>2897</v>
       </c>
@@ -50565,7 +50574,7 @@
         <v>2949</v>
       </c>
     </row>
-    <row r="490" hidden="1" spans="1:16">
+    <row r="490" spans="1:16">
       <c r="A490" t="s">
         <v>2950</v>
       </c>
@@ -50617,7 +50626,7 @@
         <v>2954</v>
       </c>
     </row>
-    <row r="491" hidden="1" spans="1:16">
+    <row r="491" spans="1:16">
       <c r="A491" t="s">
         <v>2955</v>
       </c>
@@ -50981,7 +50990,7 @@
         <v>2996</v>
       </c>
     </row>
-    <row r="498" hidden="1" spans="1:16">
+    <row r="498" spans="1:16">
       <c r="A498" t="s">
         <v>2997</v>
       </c>
@@ -51449,7 +51458,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="507" hidden="1" spans="1:16">
+    <row r="507" spans="1:16">
       <c r="A507" t="s">
         <v>3051</v>
       </c>
@@ -51917,7 +51926,7 @@
         <v>3104</v>
       </c>
     </row>
-    <row r="516" hidden="1" spans="1:16">
+    <row r="516" spans="1:16">
       <c r="A516" t="s">
         <v>3105</v>
       </c>
@@ -51969,7 +51978,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="517" hidden="1" spans="1:16">
+    <row r="517" spans="1:16">
       <c r="A517" t="s">
         <v>3111</v>
       </c>
@@ -53217,7 +53226,7 @@
         <v>3253</v>
       </c>
     </row>
-    <row r="541" hidden="1" spans="1:16">
+    <row r="541" spans="1:16">
       <c r="A541" t="s">
         <v>3254</v>
       </c>
@@ -53425,7 +53434,7 @@
         <v>3277</v>
       </c>
     </row>
-    <row r="545" hidden="1" spans="1:16">
+    <row r="545" spans="1:16">
       <c r="A545" t="s">
         <v>3278</v>
       </c>
@@ -53945,7 +53954,7 @@
         <v>3337</v>
       </c>
     </row>
-    <row r="555" hidden="1" spans="1:16">
+    <row r="555" spans="1:16">
       <c r="A555" t="s">
         <v>3338</v>
       </c>
@@ -54517,7 +54526,7 @@
         <v>3403</v>
       </c>
     </row>
-    <row r="566" hidden="1" spans="1:16">
+    <row r="566" spans="1:16">
       <c r="A566" t="s">
         <v>3404</v>
       </c>
@@ -54985,7 +54994,7 @@
         <v>3457</v>
       </c>
     </row>
-    <row r="575" hidden="1" spans="1:16">
+    <row r="575" spans="1:16">
       <c r="A575" t="s">
         <v>3458</v>
       </c>
@@ -55089,7 +55098,7 @@
         <v>3469</v>
       </c>
     </row>
-    <row r="577" hidden="1" spans="1:16">
+    <row r="577" spans="1:16">
       <c r="A577" t="s">
         <v>3470</v>
       </c>
@@ -55141,7 +55150,7 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="578" hidden="1" spans="1:16">
+    <row r="578" spans="1:16">
       <c r="A578" t="s">
         <v>3476</v>
       </c>
@@ -55453,7 +55462,7 @@
         <v>3511</v>
       </c>
     </row>
-    <row r="584" hidden="1" spans="1:16">
+    <row r="584" spans="1:16">
       <c r="A584" t="s">
         <v>3512</v>
       </c>
@@ -55765,7 +55774,7 @@
         <v>3547</v>
       </c>
     </row>
-    <row r="590" hidden="1" spans="1:16">
+    <row r="590" spans="1:16">
       <c r="A590" t="s">
         <v>3548</v>
       </c>
@@ -56025,7 +56034,7 @@
         <v>3577</v>
       </c>
     </row>
-    <row r="595" hidden="1" spans="1:16">
+    <row r="595" spans="1:16">
       <c r="A595" t="s">
         <v>3578</v>
       </c>
@@ -56493,7 +56502,7 @@
         <v>3631</v>
       </c>
     </row>
-    <row r="604" hidden="1" spans="1:16">
+    <row r="604" spans="1:16">
       <c r="A604" t="s">
         <v>3632</v>
       </c>
@@ -56649,7 +56658,7 @@
         <v>3649</v>
       </c>
     </row>
-    <row r="607" hidden="1" spans="1:16">
+    <row r="607" spans="1:16">
       <c r="A607" t="s">
         <v>3650</v>
       </c>
@@ -56805,7 +56814,7 @@
         <v>3667</v>
       </c>
     </row>
-    <row r="610" hidden="1" spans="1:16">
+    <row r="610" spans="1:16">
       <c r="A610" t="s">
         <v>3668</v>
       </c>
@@ -57115,7 +57124,7 @@
         <v>3703</v>
       </c>
     </row>
-    <row r="616" hidden="1" spans="1:16">
+    <row r="616" spans="1:16">
       <c r="A616" t="s">
         <v>3704</v>
       </c>
@@ -57315,7 +57324,7 @@
         <v>3727</v>
       </c>
     </row>
-    <row r="620" hidden="1" spans="1:16">
+    <row r="620" spans="1:16">
       <c r="A620" t="s">
         <v>3728</v>
       </c>
@@ -57665,7 +57674,7 @@
         <v>3768</v>
       </c>
     </row>
-    <row r="627" hidden="1" spans="1:16">
+    <row r="627" spans="1:16">
       <c r="A627" t="s">
         <v>3769</v>
       </c>
@@ -58065,7 +58074,7 @@
         <v>3815</v>
       </c>
     </row>
-    <row r="635" hidden="1" spans="1:16">
+    <row r="635" spans="1:16">
       <c r="A635" t="s">
         <v>3816</v>
       </c>
@@ -58115,7 +58124,7 @@
         <v>3821</v>
       </c>
     </row>
-    <row r="636" hidden="1" spans="1:16">
+    <row r="636" spans="1:16">
       <c r="A636" t="s">
         <v>3822</v>
       </c>
@@ -58315,7 +58324,7 @@
         <v>3843</v>
       </c>
     </row>
-    <row r="640" hidden="1" spans="1:16">
+    <row r="640" spans="1:16">
       <c r="A640" t="s">
         <v>3844</v>
       </c>
@@ -58665,7 +58674,7 @@
         <v>3884</v>
       </c>
     </row>
-    <row r="647" hidden="1" spans="1:16">
+    <row r="647" spans="1:16">
       <c r="A647" t="s">
         <v>3885</v>
       </c>
@@ -59065,7 +59074,7 @@
         <v>3932</v>
       </c>
     </row>
-    <row r="655" hidden="1" spans="1:16">
+    <row r="655" spans="1:16">
       <c r="A655" t="s">
         <v>3933</v>
       </c>
@@ -59215,7 +59224,7 @@
         <v>3949</v>
       </c>
     </row>
-    <row r="658" hidden="1" spans="1:16">
+    <row r="658" spans="1:16">
       <c r="A658" t="s">
         <v>3950</v>
       </c>
@@ -59515,7 +59524,7 @@
         <v>3984</v>
       </c>
     </row>
-    <row r="664" hidden="1" spans="1:16">
+    <row r="664" spans="1:16">
       <c r="A664" t="s">
         <v>3985</v>
       </c>
@@ -60065,7 +60074,7 @@
         <v>4044</v>
       </c>
     </row>
-    <row r="675" hidden="1" spans="1:16">
+    <row r="675" spans="1:16">
       <c r="A675" t="s">
         <v>4045</v>
       </c>
@@ -60115,7 +60124,7 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="676" hidden="1" spans="1:16">
+    <row r="676" spans="1:16">
       <c r="A676" t="s">
         <v>4051</v>
       </c>
@@ -60415,7 +60424,7 @@
         <v>4086</v>
       </c>
     </row>
-    <row r="682" hidden="1" spans="1:16">
+    <row r="682" spans="1:16">
       <c r="A682" t="s">
         <v>4087</v>
       </c>
@@ -60665,7 +60674,7 @@
         <v>4115</v>
       </c>
     </row>
-    <row r="687" hidden="1" spans="1:16">
+    <row r="687" spans="1:16">
       <c r="A687" t="s">
         <v>4116</v>
       </c>
@@ -60715,7 +60724,7 @@
         <v>3481</v>
       </c>
     </row>
-    <row r="688" hidden="1" spans="1:16">
+    <row r="688" spans="1:16">
       <c r="A688" t="s">
         <v>4118</v>
       </c>
@@ -61015,7 +61024,7 @@
         <v>4153</v>
       </c>
     </row>
-    <row r="694" hidden="1" spans="1:16">
+    <row r="694" spans="1:16">
       <c r="A694" t="s">
         <v>4154</v>
       </c>
@@ -61815,7 +61824,7 @@
         <v>4245</v>
       </c>
     </row>
-    <row r="710" hidden="1" spans="1:16">
+    <row r="710" spans="1:16">
       <c r="A710" t="s">
         <v>4246</v>
       </c>
@@ -62015,7 +62024,7 @@
         <v>4269</v>
       </c>
     </row>
-    <row r="714" hidden="1" spans="1:16">
+    <row r="714" spans="1:16">
       <c r="A714" t="s">
         <v>4270</v>
       </c>
@@ -62065,7 +62074,7 @@
         <v>4275</v>
       </c>
     </row>
-    <row r="715" hidden="1" spans="1:16">
+    <row r="715" spans="1:16">
       <c r="A715" t="s">
         <v>4276</v>
       </c>
@@ -63065,7 +63074,7 @@
         <v>4394</v>
       </c>
     </row>
-    <row r="735" hidden="1" spans="1:16">
+    <row r="735" spans="1:16">
       <c r="A735" t="s">
         <v>4395</v>
       </c>
@@ -63415,7 +63424,7 @@
         <v>4434</v>
       </c>
     </row>
-    <row r="742" hidden="1" spans="1:16">
+    <row r="742" spans="1:16">
       <c r="A742" t="s">
         <v>4435</v>
       </c>
@@ -63815,7 +63824,7 @@
         <v>4482</v>
       </c>
     </row>
-    <row r="750" hidden="1" spans="1:16">
+    <row r="750" spans="1:16">
       <c r="A750" t="s">
         <v>4483</v>
       </c>
@@ -65165,7 +65174,7 @@
         <v>4639</v>
       </c>
     </row>
-    <row r="777" hidden="1" spans="1:16">
+    <row r="777" spans="1:16">
       <c r="A777" t="s">
         <v>4640</v>
       </c>
@@ -65215,7 +65224,7 @@
         <v>4645</v>
       </c>
     </row>
-    <row r="778" hidden="1" spans="1:16">
+    <row r="778" spans="1:16">
       <c r="A778" t="s">
         <v>4646</v>
       </c>
@@ -65665,7 +65674,7 @@
         <v>4698</v>
       </c>
     </row>
-    <row r="787" hidden="1" spans="1:16">
+    <row r="787" spans="1:16">
       <c r="A787" t="s">
         <v>4699</v>
       </c>
@@ -72940,7 +72949,7 @@
         <v>5482</v>
       </c>
     </row>
-    <row r="929" hidden="1" spans="1:16">
+    <row r="929" spans="1:16">
       <c r="A929" t="s">
         <v>5483</v>
       </c>
@@ -74340,7 +74349,7 @@
         <v>5650</v>
       </c>
     </row>
-    <row r="957" hidden="1" spans="1:16">
+    <row r="957" spans="1:16">
       <c r="A957" t="s">
         <v>5651</v>
       </c>
@@ -84601,10 +84610,24 @@
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:P1154" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="保良局何壽南小學"/>
-      </filters>
+    <filterColumn colId="5">
+      <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="8">
+      <customFilters>
+        <customFilter operator="equal" val="全日"/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="10">
+      <customFilters>
+        <customFilter operator="equal" val="資助"/>
+        <customFilter operator="equal" val="官立"/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="11">
+      <customFilters>
+        <customFilter operator="equal" val="中學"/>
+      </customFilters>
     </filterColumn>
     <extLst/>
   </autoFilter>
@@ -84619,7 +84642,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet2"/>
+  <sheetPr filterMode="1" codeName="Sheet2"/>
   <dimension ref="A1:G478"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -84627,7 +84650,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I$1:I$1048576"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -84680,7 +84703,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:7">
+    <row r="3" ht="15.75" hidden="1" spans="1:7">
       <c r="A3" s="4" t="s">
         <v>5532</v>
       </c>
@@ -84703,7 +84726,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" ht="15.75" spans="1:7">
+    <row r="4" ht="15.75" hidden="1" spans="1:7">
       <c r="A4" s="6" t="s">
         <v>3004</v>
       </c>
@@ -84726,7 +84749,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" ht="15.75" spans="1:7">
+    <row r="5" ht="15.75" hidden="1" spans="1:7">
       <c r="A5" s="4" t="s">
         <v>5040</v>
       </c>
@@ -84749,7 +84772,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" ht="15.75" spans="1:7">
+    <row r="6" ht="15.75" hidden="1" spans="1:7">
       <c r="A6" s="6" t="s">
         <v>2869</v>
       </c>
@@ -84772,7 +84795,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="1:7">
+    <row r="7" ht="15.75" hidden="1" spans="1:7">
       <c r="A7" s="4" t="s">
         <v>3070</v>
       </c>
@@ -84795,7 +84818,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="1:7">
+    <row r="8" ht="15.75" hidden="1" spans="1:7">
       <c r="A8" s="6" t="s">
         <v>4572</v>
       </c>
@@ -84818,7 +84841,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="1:7">
+    <row r="9" ht="15.75" hidden="1" spans="1:7">
       <c r="A9" s="4" t="s">
         <v>3829</v>
       </c>
@@ -84841,7 +84864,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" ht="15.75" spans="1:7">
+    <row r="10" ht="15.75" hidden="1" spans="1:7">
       <c r="A10" s="6" t="s">
         <v>3782</v>
       </c>
@@ -84885,7 +84908,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" ht="15.75" spans="1:7">
+    <row r="12" ht="15.75" hidden="1" spans="1:7">
       <c r="A12" s="6" t="s">
         <v>3945</v>
       </c>
@@ -84908,7 +84931,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" ht="15.75" spans="1:7">
+    <row r="13" ht="15.75" hidden="1" spans="1:7">
       <c r="A13" s="4" t="s">
         <v>2939</v>
       </c>
@@ -84931,7 +84954,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" ht="15.75" spans="1:7">
+    <row r="14" ht="15.75" hidden="1" spans="1:7">
       <c r="A14" s="6" t="s">
         <v>3453</v>
       </c>
@@ -84954,7 +84977,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" ht="15.75" spans="1:7">
+    <row r="15" ht="15.75" hidden="1" spans="1:7">
       <c r="A15" s="4" t="s">
         <v>3645</v>
       </c>
@@ -84977,7 +85000,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" ht="15.75" spans="1:7">
+    <row r="16" ht="15.75" hidden="1" spans="1:7">
       <c r="A16" s="6" t="s">
         <v>4265</v>
       </c>
@@ -85000,7 +85023,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" ht="15.75" spans="1:7">
+    <row r="17" ht="15.75" hidden="1" spans="1:7">
       <c r="A17" s="4" t="s">
         <v>3100</v>
       </c>
@@ -85023,7 +85046,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" ht="15.75" spans="1:7">
+    <row r="18" ht="15.75" hidden="1" spans="1:7">
       <c r="A18" s="6" t="s">
         <v>4630</v>
       </c>
@@ -85046,7 +85069,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" ht="15.75" spans="1:7">
+    <row r="19" ht="15.75" hidden="1" spans="1:7">
       <c r="A19" s="4" t="s">
         <v>3399</v>
       </c>
@@ -85069,7 +85092,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" ht="15.75" spans="1:7">
+    <row r="20" ht="15.75" hidden="1" spans="1:7">
       <c r="A20" s="6" t="s">
         <v>2809</v>
       </c>
@@ -85092,7 +85115,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" ht="15.75" spans="1:7">
+    <row r="21" ht="15.75" hidden="1" spans="1:7">
       <c r="A21" s="4" t="s">
         <v>4100</v>
       </c>
@@ -85115,7 +85138,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" ht="15.75" spans="1:7">
+    <row r="22" ht="15.75" hidden="1" spans="1:7">
       <c r="A22" s="6" t="s">
         <v>3525</v>
       </c>
@@ -85138,7 +85161,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" ht="15.75" spans="1:7">
+    <row r="23" ht="15.75" hidden="1" spans="1:7">
       <c r="A23" s="4" t="s">
         <v>3975</v>
       </c>
@@ -85161,7 +85184,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" ht="15.75" spans="1:7">
+    <row r="24" ht="15.75" hidden="1" spans="1:7">
       <c r="A24" s="6" t="s">
         <v>6535</v>
       </c>
@@ -85184,7 +85207,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" ht="15.75" spans="1:7">
+    <row r="25" ht="15.75" hidden="1" spans="1:7">
       <c r="A25" s="4" t="s">
         <v>3064</v>
       </c>
@@ -85207,7 +85230,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" ht="15.75" spans="1:7">
+    <row r="26" ht="15.75" hidden="1" spans="1:7">
       <c r="A26" s="6" t="s">
         <v>3800</v>
       </c>
@@ -85230,7 +85253,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" ht="15.75" spans="1:7">
+    <row r="27" ht="15.75" hidden="1" spans="1:7">
       <c r="A27" s="4" t="s">
         <v>6537</v>
       </c>
@@ -85253,7 +85276,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" ht="15.75" spans="1:7">
+    <row r="28" ht="15.75" hidden="1" spans="1:7">
       <c r="A28" s="6" t="s">
         <v>5046</v>
       </c>
@@ -85276,7 +85299,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" ht="15.75" spans="1:7">
+    <row r="29" ht="15.75" hidden="1" spans="1:7">
       <c r="A29" s="4" t="s">
         <v>4910</v>
       </c>
@@ -85299,7 +85322,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" ht="15.75" spans="1:7">
+    <row r="30" ht="15.75" hidden="1" spans="1:7">
       <c r="A30" s="6" t="s">
         <v>4295</v>
       </c>
@@ -85322,7 +85345,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" ht="15.75" spans="1:7">
+    <row r="31" ht="15.75" hidden="1" spans="1:7">
       <c r="A31" s="4" t="s">
         <v>5070</v>
       </c>
@@ -85345,7 +85368,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" ht="15.75" spans="1:7">
+    <row r="32" ht="15.75" hidden="1" spans="1:7">
       <c r="A32" s="6" t="s">
         <v>6171</v>
       </c>
@@ -85368,7 +85391,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" ht="15.75" spans="1:7">
+    <row r="33" ht="15.75" hidden="1" spans="1:7">
       <c r="A33" s="4" t="s">
         <v>5634</v>
       </c>
@@ -85391,7 +85414,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" ht="15.75" spans="1:7">
+    <row r="34" ht="15.75" hidden="1" spans="1:7">
       <c r="A34" s="6" t="s">
         <v>2881</v>
       </c>
@@ -85414,7 +85437,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" ht="15.75" spans="1:7">
+    <row r="35" ht="15.75" hidden="1" spans="1:7">
       <c r="A35" s="4" t="s">
         <v>4149</v>
       </c>
@@ -85437,7 +85460,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" ht="15.75" spans="1:7">
+    <row r="36" ht="15.75" hidden="1" spans="1:7">
       <c r="A36" s="6" t="s">
         <v>4318</v>
       </c>
@@ -85460,7 +85483,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" ht="15.75" spans="1:7">
+    <row r="37" ht="15.75" hidden="1" spans="1:7">
       <c r="A37" s="4" t="s">
         <v>4187</v>
       </c>
@@ -85483,7 +85506,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" ht="15.75" spans="1:7">
+    <row r="38" ht="15.75" hidden="1" spans="1:7">
       <c r="A38" s="6" t="s">
         <v>4555</v>
       </c>
@@ -85506,7 +85529,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" ht="15.75" spans="1:7">
+    <row r="39" ht="15.75" hidden="1" spans="1:7">
       <c r="A39" s="4" t="s">
         <v>4653</v>
       </c>
@@ -85529,7 +85552,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="40" ht="15.75" spans="1:7">
+    <row r="40" ht="15.75" hidden="1" spans="1:7">
       <c r="A40" s="6" t="s">
         <v>4507</v>
       </c>
@@ -85552,7 +85575,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" ht="15.75" spans="1:7">
+    <row r="41" ht="15.75" hidden="1" spans="1:7">
       <c r="A41" s="4" t="s">
         <v>2592</v>
       </c>
@@ -85575,7 +85598,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" ht="15.75" spans="1:7">
+    <row r="42" ht="15.75" hidden="1" spans="1:7">
       <c r="A42" s="6" t="s">
         <v>3987</v>
       </c>
@@ -85598,7 +85621,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" ht="15.75" spans="1:7">
+    <row r="43" ht="15.75" hidden="1" spans="1:7">
       <c r="A43" s="4" t="s">
         <v>2986</v>
       </c>
@@ -85621,7 +85644,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="44" ht="15.75" spans="1:7">
+    <row r="44" ht="15.75" hidden="1" spans="1:7">
       <c r="A44" s="6" t="s">
         <v>4525</v>
       </c>
@@ -85644,7 +85667,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" ht="15.75" spans="1:7">
+    <row r="45" ht="15.75" hidden="1" spans="1:7">
       <c r="A45" s="4" t="s">
         <v>3243</v>
       </c>
@@ -85667,7 +85690,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" ht="15.75" spans="1:7">
+    <row r="46" ht="15.75" hidden="1" spans="1:7">
       <c r="A46" s="6" t="s">
         <v>2803</v>
       </c>
@@ -85690,7 +85713,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="47" ht="15.75" spans="1:7">
+    <row r="47" ht="15.75" hidden="1" spans="1:7">
       <c r="A47" s="4" t="s">
         <v>3016</v>
       </c>
@@ -85713,7 +85736,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="48" ht="15.75" spans="1:7">
+    <row r="48" ht="15.75" hidden="1" spans="1:7">
       <c r="A48" s="6" t="s">
         <v>5538</v>
       </c>
@@ -85736,7 +85759,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="49" ht="15.75" spans="1:7">
+    <row r="49" ht="15.75" hidden="1" spans="1:7">
       <c r="A49" s="4" t="s">
         <v>4659</v>
       </c>
@@ -85759,7 +85782,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50" ht="15.75" spans="1:7">
+    <row r="50" ht="15.75" hidden="1" spans="1:7">
       <c r="A50" s="6" t="s">
         <v>6539</v>
       </c>
@@ -85782,7 +85805,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="51" ht="15.75" spans="1:7">
+    <row r="51" ht="15.75" hidden="1" spans="1:7">
       <c r="A51" s="4" t="s">
         <v>3806</v>
       </c>
@@ -85805,7 +85828,7 @@
         <v>6540</v>
       </c>
     </row>
-    <row r="52" ht="15.75" spans="1:7">
+    <row r="52" ht="15.75" hidden="1" spans="1:7">
       <c r="A52" s="6" t="s">
         <v>2617</v>
       </c>
@@ -85828,7 +85851,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" ht="15.75" spans="1:7">
+    <row r="53" ht="15.75" hidden="1" spans="1:7">
       <c r="A53" s="4" t="s">
         <v>5520</v>
       </c>
@@ -85851,7 +85874,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" ht="15.75" spans="1:7">
+    <row r="54" ht="15.75" hidden="1" spans="1:7">
       <c r="A54" s="6" t="s">
         <v>3369</v>
       </c>
@@ -85874,7 +85897,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" ht="15.75" spans="1:7">
+    <row r="55" ht="15.75" hidden="1" spans="1:7">
       <c r="A55" s="4" t="s">
         <v>5616</v>
       </c>
@@ -85897,7 +85920,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="56" ht="15.75" spans="1:7">
+    <row r="56" ht="15.75" hidden="1" spans="1:7">
       <c r="A56" s="6" t="s">
         <v>3585</v>
       </c>
@@ -85920,7 +85943,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" ht="15.75" spans="1:7">
+    <row r="57" ht="15.75" hidden="1" spans="1:7">
       <c r="A57" s="4" t="s">
         <v>4402</v>
       </c>
@@ -85943,7 +85966,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" ht="15.75" spans="1:7">
+    <row r="58" ht="15.75" hidden="1" spans="1:7">
       <c r="A58" s="6" t="s">
         <v>3892</v>
       </c>
@@ -85966,7 +85989,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="59" ht="15.75" spans="1:7">
+    <row r="59" ht="15.75" hidden="1" spans="1:7">
       <c r="A59" s="4" t="s">
         <v>4549</v>
       </c>
@@ -85989,7 +86012,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="60" ht="15.75" spans="1:7">
+    <row r="60" ht="15.75" hidden="1" spans="1:7">
       <c r="A60" s="6" t="s">
         <v>4217</v>
       </c>
@@ -86012,7 +86035,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="61" ht="15.75" spans="1:7">
+    <row r="61" ht="15.75" hidden="1" spans="1:7">
       <c r="A61" s="4" t="s">
         <v>3291</v>
       </c>
@@ -86035,7 +86058,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="62" ht="15.75" spans="1:7">
+    <row r="62" ht="15.75" hidden="1" spans="1:7">
       <c r="A62" s="6" t="s">
         <v>3183</v>
       </c>
@@ -86079,7 +86102,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="64" ht="15.75" spans="1:7">
+    <row r="64" ht="15.75" hidden="1" spans="1:7">
       <c r="A64" s="6" t="s">
         <v>6541</v>
       </c>
@@ -86102,7 +86125,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="65" ht="15.75" spans="1:7">
+    <row r="65" ht="15.75" hidden="1" spans="1:7">
       <c r="A65" s="4" t="s">
         <v>2668</v>
       </c>
@@ -86125,7 +86148,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="66" ht="15.75" spans="1:7">
+    <row r="66" ht="15.75" hidden="1" spans="1:7">
       <c r="A66" s="6" t="s">
         <v>5100</v>
       </c>
@@ -86148,7 +86171,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="67" ht="15.75" spans="1:7">
+    <row r="67" ht="15.75" hidden="1" spans="1:7">
       <c r="A67" s="4" t="s">
         <v>3357</v>
       </c>
@@ -86171,7 +86194,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="68" ht="15.75" spans="1:7">
+    <row r="68" ht="15.75" hidden="1" spans="1:7">
       <c r="A68" s="6" t="s">
         <v>3058</v>
       </c>
@@ -86194,7 +86217,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="69" ht="15.75" spans="1:7">
+    <row r="69" ht="15.75" hidden="1" spans="1:7">
       <c r="A69" s="4" t="s">
         <v>4241</v>
       </c>
@@ -86217,7 +86240,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="70" ht="15.75" spans="1:7">
+    <row r="70" ht="15.75" hidden="1" spans="1:7">
       <c r="A70" s="6" t="s">
         <v>2887</v>
       </c>
@@ -86240,7 +86263,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="71" ht="15.75" spans="1:7">
+    <row r="71" ht="15.75" hidden="1" spans="1:7">
       <c r="A71" s="4" t="s">
         <v>3597</v>
       </c>
@@ -86263,7 +86286,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="72" ht="15.75" spans="1:7">
+    <row r="72" ht="15.75" hidden="1" spans="1:7">
       <c r="A72" s="6" t="s">
         <v>4537</v>
       </c>
@@ -86286,7 +86309,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" ht="15.75" spans="1:7">
+    <row r="73" ht="15.75" hidden="1" spans="1:7">
       <c r="A73" s="4" t="s">
         <v>4366</v>
       </c>
@@ -86309,7 +86332,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="74" ht="15.75" spans="1:7">
+    <row r="74" ht="15.75" hidden="1" spans="1:7">
       <c r="A74" s="6" t="s">
         <v>3375</v>
       </c>
@@ -86332,7 +86355,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="75" ht="15.75" spans="1:7">
+    <row r="75" ht="15.75" hidden="1" spans="1:7">
       <c r="A75" s="4" t="s">
         <v>3963</v>
       </c>
@@ -86355,7 +86378,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="76" ht="15.75" spans="1:7">
+    <row r="76" ht="15.75" hidden="1" spans="1:7">
       <c r="A76" s="6" t="s">
         <v>6542</v>
       </c>
@@ -86378,7 +86401,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="77" ht="15.75" spans="1:7">
+    <row r="77" ht="15.75" hidden="1" spans="1:7">
       <c r="A77" s="4" t="s">
         <v>2674</v>
       </c>
@@ -86401,7 +86424,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="78" ht="15.75" spans="1:7">
+    <row r="78" ht="15.75" hidden="1" spans="1:7">
       <c r="A78" s="6" t="s">
         <v>3693</v>
       </c>
@@ -86424,7 +86447,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="79" ht="15.75" spans="1:7">
+    <row r="79" ht="15.75" hidden="1" spans="1:7">
       <c r="A79" s="4" t="s">
         <v>4094</v>
       </c>
@@ -86447,7 +86470,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="80" ht="15.75" spans="1:7">
+    <row r="80" ht="15.75" hidden="1" spans="1:7">
       <c r="A80" s="6" t="s">
         <v>2598</v>
       </c>
@@ -86470,7 +86493,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="81" ht="15.75" spans="1:7">
+    <row r="81" ht="15.75" hidden="1" spans="1:7">
       <c r="A81" s="4" t="s">
         <v>2604</v>
       </c>
@@ -86493,7 +86516,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="82" ht="15.75" spans="1:7">
+    <row r="82" ht="15.75" hidden="1" spans="1:7">
       <c r="A82" s="6" t="s">
         <v>4112</v>
       </c>
@@ -86516,7 +86539,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="83" ht="15.75" spans="1:7">
+    <row r="83" ht="15.75" hidden="1" spans="1:7">
       <c r="A83" s="4" t="s">
         <v>4904</v>
       </c>
@@ -86539,7 +86562,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="84" ht="15.75" spans="1:7">
+    <row r="84" ht="15.75" hidden="1" spans="1:7">
       <c r="A84" s="6" t="s">
         <v>2922</v>
       </c>
@@ -86583,7 +86606,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="86" ht="15.75" spans="1:7">
+    <row r="86" ht="15.75" hidden="1" spans="1:7">
       <c r="A86" s="6" t="s">
         <v>4211</v>
       </c>
@@ -86606,7 +86629,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="87" ht="15.75" spans="1:7">
+    <row r="87" ht="15.75" hidden="1" spans="1:7">
       <c r="A87" s="4" t="s">
         <v>6201</v>
       </c>
@@ -86629,7 +86652,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="88" ht="15.75" spans="1:7">
+    <row r="88" ht="15.75" hidden="1" spans="1:7">
       <c r="A88" s="6" t="s">
         <v>4932</v>
       </c>
@@ -86652,7 +86675,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="89" ht="15.75" spans="1:7">
+    <row r="89" ht="15.75" hidden="1" spans="1:7">
       <c r="A89" s="4" t="s">
         <v>3663</v>
       </c>
@@ -86675,7 +86698,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="90" ht="15.75" spans="1:7">
+    <row r="90" ht="15.75" hidden="1" spans="1:7">
       <c r="A90" s="6" t="s">
         <v>3981</v>
       </c>
@@ -86698,7 +86721,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="91" ht="15.75" spans="1:7">
+    <row r="91" ht="15.75" hidden="1" spans="1:7">
       <c r="A91" s="4" t="s">
         <v>6544</v>
       </c>
@@ -86721,7 +86744,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="92" ht="15.75" spans="1:7">
+    <row r="92" ht="15.75" hidden="1" spans="1:7">
       <c r="A92" s="6" t="s">
         <v>5496</v>
       </c>
@@ -86744,7 +86767,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="93" ht="15.75" spans="1:7">
+    <row r="93" ht="15.75" hidden="1" spans="1:7">
       <c r="A93" s="4" t="s">
         <v>6545</v>
       </c>
@@ -86767,7 +86790,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="94" ht="15.75" spans="1:7">
+    <row r="94" ht="15.75" hidden="1" spans="1:7">
       <c r="A94" s="6" t="s">
         <v>3088</v>
       </c>
@@ -86790,7 +86813,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="95" ht="15.75" spans="1:7">
+    <row r="95" ht="15.75" hidden="1" spans="1:7">
       <c r="A95" s="4" t="s">
         <v>3519</v>
       </c>
@@ -86813,7 +86836,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" ht="15.75" spans="1:7">
+    <row r="96" ht="15.75" hidden="1" spans="1:7">
       <c r="A96" s="6" t="s">
         <v>5155</v>
       </c>
@@ -86836,7 +86859,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="97" ht="15.75" spans="1:7">
+    <row r="97" ht="15.75" hidden="1" spans="1:7">
       <c r="A97" s="4" t="s">
         <v>3788</v>
       </c>
@@ -86859,7 +86882,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="98" ht="15.75" spans="1:7">
+    <row r="98" ht="15.75" hidden="1" spans="1:7">
       <c r="A98" s="6" t="s">
         <v>4472</v>
       </c>
@@ -86882,7 +86905,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="99" ht="15.75" spans="1:7">
+    <row r="99" ht="15.75" hidden="1" spans="1:7">
       <c r="A99" s="4" t="s">
         <v>3999</v>
       </c>
@@ -86905,7 +86928,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="100" ht="15.75" spans="1:7">
+    <row r="100" ht="15.75" hidden="1" spans="1:7">
       <c r="A100" s="6" t="s">
         <v>5076</v>
       </c>
@@ -86928,7 +86951,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="101" ht="15" spans="1:7">
+    <row r="101" ht="15" hidden="1" spans="1:7">
       <c r="A101" s="8" t="s">
         <v>4496</v>
       </c>
@@ -86951,7 +86974,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="102" ht="15" spans="1:7">
+    <row r="102" ht="15" hidden="1" spans="1:7">
       <c r="A102" s="10" t="s">
         <v>5490</v>
       </c>
@@ -86974,7 +86997,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="103" ht="15" spans="1:7">
+    <row r="103" ht="15" hidden="1" spans="1:7">
       <c r="A103" s="12" t="s">
         <v>6546</v>
       </c>
@@ -86997,7 +87020,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="104" ht="15" spans="1:7">
+    <row r="104" ht="15" hidden="1" spans="1:7">
       <c r="A104" s="14" t="s">
         <v>6547</v>
       </c>
@@ -87020,7 +87043,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="105" ht="15" spans="1:7">
+    <row r="105" ht="15" hidden="1" spans="1:7">
       <c r="A105" s="12" t="s">
         <v>3993</v>
       </c>
@@ -87043,7 +87066,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="106" ht="15" spans="1:7">
+    <row r="106" ht="15" hidden="1" spans="1:7">
       <c r="A106" s="14" t="s">
         <v>2933</v>
       </c>
@@ -87066,7 +87089,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="107" ht="15" spans="1:7">
+    <row r="107" ht="15" hidden="1" spans="1:7">
       <c r="A107" s="12" t="s">
         <v>6548</v>
       </c>
@@ -87089,7 +87112,7 @@
         <v>6549</v>
       </c>
     </row>
-    <row r="108" ht="15" spans="1:7">
+    <row r="108" ht="15" hidden="1" spans="1:7">
       <c r="A108" s="14" t="s">
         <v>6550</v>
       </c>
@@ -87112,7 +87135,7 @@
         <v>6549</v>
       </c>
     </row>
-    <row r="109" ht="15" spans="1:7">
+    <row r="109" ht="15" hidden="1" spans="1:7">
       <c r="A109" s="12" t="s">
         <v>6551</v>
       </c>
@@ -87135,7 +87158,7 @@
         <v>6549</v>
       </c>
     </row>
-    <row r="110" ht="15" spans="1:7">
+    <row r="110" ht="15" hidden="1" spans="1:7">
       <c r="A110" s="14" t="s">
         <v>2974</v>
       </c>
@@ -87179,7 +87202,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="112" ht="15" spans="1:7">
+    <row r="112" ht="15" hidden="1" spans="1:7">
       <c r="A112" s="14" t="s">
         <v>6552</v>
       </c>
@@ -87202,7 +87225,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" ht="15" spans="1:7">
+    <row r="113" ht="15" hidden="1" spans="1:7">
       <c r="A113" s="12" t="s">
         <v>3082</v>
       </c>
@@ -87225,7 +87248,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" ht="15" spans="1:7">
+    <row r="114" ht="15" hidden="1" spans="1:7">
       <c r="A114" s="14" t="s">
         <v>6554</v>
       </c>
@@ -87248,7 +87271,7 @@
         <v>6549</v>
       </c>
     </row>
-    <row r="115" ht="15" spans="1:7">
+    <row r="115" ht="15" hidden="1" spans="1:7">
       <c r="A115" s="12" t="s">
         <v>6555</v>
       </c>
@@ -87271,7 +87294,7 @@
         <v>6549</v>
       </c>
     </row>
-    <row r="116" ht="15" spans="1:7">
+    <row r="116" ht="15" hidden="1" spans="1:7">
       <c r="A116" s="14" t="s">
         <v>3076</v>
       </c>
@@ -87294,7 +87317,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" ht="15" spans="1:7">
+    <row r="117" ht="15" hidden="1" spans="1:7">
       <c r="A117" s="12" t="s">
         <v>3764</v>
       </c>
@@ -87317,7 +87340,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" ht="15" spans="1:7">
+    <row r="118" ht="15" hidden="1" spans="1:7">
       <c r="A118" s="14" t="s">
         <v>3561</v>
       </c>
@@ -87340,7 +87363,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" ht="15" spans="1:7">
+    <row r="119" ht="15" hidden="1" spans="1:7">
       <c r="A119" s="12" t="s">
         <v>3435</v>
       </c>
@@ -87363,7 +87386,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" ht="15" spans="1:7">
+    <row r="120" ht="15" hidden="1" spans="1:7">
       <c r="A120" s="14" t="s">
         <v>2945</v>
       </c>
@@ -87386,7 +87409,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121" ht="15" spans="1:7">
+    <row r="121" ht="15" hidden="1" spans="1:7">
       <c r="A121" s="12" t="s">
         <v>4636</v>
       </c>
@@ -87430,7 +87453,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="123" ht="15" spans="1:7">
+    <row r="123" ht="15" hidden="1" spans="1:7">
       <c r="A123" s="12" t="s">
         <v>6556</v>
       </c>
@@ -87453,7 +87476,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="124" ht="15" spans="1:7">
+    <row r="124" ht="15" hidden="1" spans="1:7">
       <c r="A124" s="14" t="s">
         <v>4938</v>
       </c>
@@ -87476,7 +87499,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="125" ht="15" spans="1:7">
+    <row r="125" ht="15" hidden="1" spans="1:7">
       <c r="A125" s="12" t="s">
         <v>4992</v>
       </c>
@@ -87499,7 +87522,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="126" ht="15" spans="1:7">
+    <row r="126" ht="15" hidden="1" spans="1:7">
       <c r="A126" s="14" t="s">
         <v>5016</v>
       </c>
@@ -87522,7 +87545,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="127" ht="15" spans="1:7">
+    <row r="127" ht="15" hidden="1" spans="1:7">
       <c r="A127" s="12" t="s">
         <v>6557</v>
       </c>
@@ -87545,7 +87568,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="128" ht="15" spans="1:7">
+    <row r="128" ht="15" hidden="1" spans="1:7">
       <c r="A128" s="14" t="s">
         <v>6558</v>
       </c>
@@ -87568,7 +87591,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="129" ht="15" spans="1:7">
+    <row r="129" ht="15" hidden="1" spans="1:7">
       <c r="A129" s="12" t="s">
         <v>4885</v>
       </c>
@@ -87591,7 +87614,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="130" ht="15" spans="1:7">
+    <row r="130" ht="15" hidden="1" spans="1:7">
       <c r="A130" s="14" t="s">
         <v>4752</v>
       </c>
@@ -87614,7 +87637,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="131" ht="15" spans="1:7">
+    <row r="131" ht="15" hidden="1" spans="1:7">
       <c r="A131" s="12" t="s">
         <v>3142</v>
       </c>
@@ -87637,7 +87660,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="132" ht="15" spans="1:7">
+    <row r="132" ht="15" hidden="1" spans="1:7">
       <c r="A132" s="14" t="s">
         <v>6559</v>
       </c>
@@ -87660,7 +87683,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="133" ht="15" spans="1:7">
+    <row r="133" ht="15" hidden="1" spans="1:7">
       <c r="A133" s="12" t="s">
         <v>4478</v>
       </c>
@@ -87683,7 +87706,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="134" ht="15" spans="1:7">
+    <row r="134" ht="15" hidden="1" spans="1:7">
       <c r="A134" s="14" t="s">
         <v>2680</v>
       </c>
@@ -87706,7 +87729,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="135" ht="15" spans="1:7">
+    <row r="135" ht="15" hidden="1" spans="1:7">
       <c r="A135" s="12" t="s">
         <v>4968</v>
       </c>
@@ -87729,7 +87752,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="136" ht="15" spans="1:7">
+    <row r="136" ht="15" hidden="1" spans="1:7">
       <c r="A136" s="14" t="s">
         <v>3928</v>
       </c>
@@ -87752,7 +87775,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="137" ht="15" spans="1:7">
+    <row r="137" ht="15" hidden="1" spans="1:7">
       <c r="A137" s="12" t="s">
         <v>3028</v>
       </c>
@@ -87775,7 +87798,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="138" ht="15" spans="1:7">
+    <row r="138" ht="15" hidden="1" spans="1:7">
       <c r="A138" s="14" t="s">
         <v>6560</v>
       </c>
@@ -87798,7 +87821,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="139" ht="15" spans="1:7">
+    <row r="139" ht="15" hidden="1" spans="1:7">
       <c r="A139" s="12" t="s">
         <v>6561</v>
       </c>
@@ -87821,7 +87844,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="140" ht="15" spans="1:7">
+    <row r="140" ht="15" hidden="1" spans="1:7">
       <c r="A140" s="14" t="s">
         <v>4867</v>
       </c>
@@ -87844,7 +87867,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="141" ht="15" spans="1:7">
+    <row r="141" ht="15" hidden="1" spans="1:7">
       <c r="A141" s="12" t="s">
         <v>4313</v>
       </c>
@@ -87888,7 +87911,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="143" ht="15" spans="1:7">
+    <row r="143" ht="15" hidden="1" spans="1:7">
       <c r="A143" s="12" t="s">
         <v>5138</v>
       </c>
@@ -87911,7 +87934,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="144" ht="15" spans="1:7">
+    <row r="144" ht="15" hidden="1" spans="1:7">
       <c r="A144" s="14" t="s">
         <v>6562</v>
       </c>
@@ -87934,7 +87957,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="145" ht="15" spans="1:7">
+    <row r="145" ht="15" hidden="1" spans="1:7">
       <c r="A145" s="12" t="s">
         <v>3177</v>
       </c>
@@ -87957,7 +87980,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="146" ht="15" spans="1:7">
+    <row r="146" ht="15" hidden="1" spans="1:7">
       <c r="A146" s="14" t="s">
         <v>4566</v>
       </c>
@@ -87980,7 +88003,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" ht="15" spans="1:7">
+    <row r="147" ht="15" hidden="1" spans="1:7">
       <c r="A147" s="12" t="s">
         <v>2892</v>
       </c>
@@ -88003,7 +88026,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" ht="15" spans="1:7">
+    <row r="148" ht="15" hidden="1" spans="1:7">
       <c r="A148" s="14" t="s">
         <v>4169</v>
       </c>
@@ -88026,7 +88049,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" ht="15" spans="1:7">
+    <row r="149" ht="15" hidden="1" spans="1:7">
       <c r="A149" s="12" t="s">
         <v>3165</v>
       </c>
@@ -88049,7 +88072,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="150" ht="15" spans="1:7">
+    <row r="150" ht="15" hidden="1" spans="1:7">
       <c r="A150" s="14" t="s">
         <v>3261</v>
       </c>
@@ -88072,7 +88095,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" ht="15" spans="1:7">
+    <row r="151" ht="15" hidden="1" spans="1:7">
       <c r="A151" s="12" t="s">
         <v>4324</v>
       </c>
@@ -88095,7 +88118,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="152" ht="15" spans="1:7">
+    <row r="152" ht="15" hidden="1" spans="1:7">
       <c r="A152" s="14" t="s">
         <v>2703</v>
       </c>
@@ -88118,7 +88141,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="153" ht="15" spans="1:7">
+    <row r="153" ht="15" hidden="1" spans="1:7">
       <c r="A153" s="12" t="s">
         <v>2719</v>
       </c>
@@ -88141,7 +88164,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="154" ht="15" spans="1:7">
+    <row r="154" ht="15" hidden="1" spans="1:7">
       <c r="A154" s="14" t="s">
         <v>2833</v>
       </c>
@@ -88164,7 +88187,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="155" ht="15" spans="1:7">
+    <row r="155" ht="15" hidden="1" spans="1:7">
       <c r="A155" s="12" t="s">
         <v>5640</v>
       </c>
@@ -88187,7 +88210,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="156" ht="15" spans="1:7">
+    <row r="156" ht="15" hidden="1" spans="1:7">
       <c r="A156" s="14" t="s">
         <v>3171</v>
       </c>
@@ -88210,7 +88233,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="157" ht="15" spans="1:7">
+    <row r="157" ht="15" hidden="1" spans="1:7">
       <c r="A157" s="12" t="s">
         <v>5149</v>
       </c>
@@ -88233,7 +88256,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="158" ht="15" spans="1:7">
+    <row r="158" ht="15" hidden="1" spans="1:7">
       <c r="A158" s="14" t="s">
         <v>3747</v>
       </c>
@@ -88256,7 +88279,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="159" ht="15" spans="1:7">
+    <row r="159" ht="15" hidden="1" spans="1:7">
       <c r="A159" s="12" t="s">
         <v>6563</v>
       </c>
@@ -88279,7 +88302,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="160" ht="15" spans="1:7">
+    <row r="160" ht="15" hidden="1" spans="1:7">
       <c r="A160" s="14" t="s">
         <v>3429</v>
       </c>
@@ -88302,7 +88325,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="161" ht="15" spans="1:7">
+    <row r="161" ht="15" hidden="1" spans="1:7">
       <c r="A161" s="12" t="s">
         <v>5167</v>
       </c>
@@ -88325,7 +88348,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="162" ht="15" spans="1:7">
+    <row r="162" ht="15" hidden="1" spans="1:7">
       <c r="A162" s="14" t="s">
         <v>6564</v>
       </c>
@@ -88348,7 +88371,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="163" ht="15" spans="1:7">
+    <row r="163" ht="15" hidden="1" spans="1:7">
       <c r="A163" s="12" t="s">
         <v>4676</v>
       </c>
@@ -88371,7 +88394,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="164" ht="15" spans="1:7">
+    <row r="164" ht="15" hidden="1" spans="1:7">
       <c r="A164" s="14" t="s">
         <v>2650</v>
       </c>
@@ -88394,7 +88417,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="165" ht="15" spans="1:7">
+    <row r="165" ht="15" hidden="1" spans="1:7">
       <c r="A165" s="12" t="s">
         <v>4578</v>
       </c>
@@ -88417,7 +88440,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="166" ht="15" spans="1:7">
+    <row r="166" ht="15" hidden="1" spans="1:7">
       <c r="A166" s="14" t="s">
         <v>3711</v>
       </c>
@@ -88440,7 +88463,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="167" ht="15" spans="1:7">
+    <row r="167" ht="15" hidden="1" spans="1:7">
       <c r="A167" s="12" t="s">
         <v>6565</v>
       </c>
@@ -88463,7 +88486,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="168" ht="15" spans="1:7">
+    <row r="168" ht="15" hidden="1" spans="1:7">
       <c r="A168" s="14" t="s">
         <v>3387</v>
       </c>
@@ -88486,7 +88509,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="169" ht="15" spans="1:7">
+    <row r="169" ht="15" hidden="1" spans="1:7">
       <c r="A169" s="12" t="s">
         <v>2968</v>
       </c>
@@ -88509,7 +88532,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" ht="15" spans="1:7">
+    <row r="170" ht="15" hidden="1" spans="1:7">
       <c r="A170" s="14" t="s">
         <v>3094</v>
       </c>
@@ -88532,7 +88555,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="171" ht="15" spans="1:7">
+    <row r="171" ht="15" hidden="1" spans="1:7">
       <c r="A171" s="12" t="s">
         <v>5556</v>
       </c>
@@ -88555,7 +88578,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="172" ht="15" spans="1:7">
+    <row r="172" ht="15" hidden="1" spans="1:7">
       <c r="A172" s="14" t="s">
         <v>4980</v>
       </c>
@@ -88578,7 +88601,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="173" ht="15" spans="1:7">
+    <row r="173" ht="15" hidden="1" spans="1:7">
       <c r="A173" s="12" t="s">
         <v>4682</v>
       </c>
@@ -88601,7 +88624,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="174" ht="15" spans="1:7">
+    <row r="174" ht="15" hidden="1" spans="1:7">
       <c r="A174" s="14" t="s">
         <v>5562</v>
       </c>
@@ -88645,7 +88668,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="176" ht="15" spans="1:7">
+    <row r="176" ht="15" hidden="1" spans="1:7">
       <c r="A176" s="14" t="s">
         <v>4348</v>
       </c>
@@ -88668,7 +88691,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="177" ht="15" spans="1:7">
+    <row r="177" ht="15" hidden="1" spans="1:7">
       <c r="A177" s="12" t="s">
         <v>3381</v>
       </c>
@@ -88691,7 +88714,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="178" ht="15" spans="1:7">
+    <row r="178" ht="15" hidden="1" spans="1:7">
       <c r="A178" s="14" t="s">
         <v>3297</v>
       </c>
@@ -88714,7 +88737,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="179" ht="15" spans="1:7">
+    <row r="179" ht="15" hidden="1" spans="1:7">
       <c r="A179" s="12" t="s">
         <v>2767</v>
       </c>
@@ -88737,7 +88760,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="180" ht="15" spans="1:7">
+    <row r="180" ht="15" hidden="1" spans="1:7">
       <c r="A180" s="14" t="s">
         <v>5580</v>
       </c>
@@ -88760,7 +88783,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="181" ht="15" spans="1:7">
+    <row r="181" ht="15" hidden="1" spans="1:7">
       <c r="A181" s="12" t="s">
         <v>4205</v>
       </c>
@@ -88783,7 +88806,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="182" ht="15" spans="1:7">
+    <row r="182" ht="15" hidden="1" spans="1:7">
       <c r="A182" s="14" t="s">
         <v>3411</v>
       </c>
@@ -88806,7 +88829,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="183" ht="15" spans="1:7">
+    <row r="183" ht="15" hidden="1" spans="1:7">
       <c r="A183" s="12" t="s">
         <v>4543</v>
       </c>
@@ -88850,7 +88873,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="185" ht="15" spans="1:7">
+    <row r="185" ht="15" hidden="1" spans="1:7">
       <c r="A185" s="12" t="s">
         <v>3195</v>
       </c>
@@ -88873,7 +88896,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="186" ht="15" spans="1:7">
+    <row r="186" ht="15" hidden="1" spans="1:7">
       <c r="A186" s="14" t="s">
         <v>3904</v>
       </c>
@@ -88896,7 +88919,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="187" ht="15" spans="1:7">
+    <row r="187" ht="15" hidden="1" spans="1:7">
       <c r="A187" s="12" t="s">
         <v>3916</v>
       </c>
@@ -88919,7 +88942,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="188" ht="15" spans="1:7">
+    <row r="188" ht="15" hidden="1" spans="1:7">
       <c r="A188" s="14" t="s">
         <v>3363</v>
       </c>
@@ -88942,7 +88965,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="189" ht="15" spans="1:7">
+    <row r="189" ht="15" hidden="1" spans="1:7">
       <c r="A189" s="12" t="s">
         <v>3657</v>
       </c>
@@ -88965,7 +88988,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="190" ht="15" spans="1:7">
+    <row r="190" ht="15" hidden="1" spans="1:7">
       <c r="A190" s="14" t="s">
         <v>5034</v>
       </c>
@@ -88988,7 +89011,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="191" ht="15" spans="1:7">
+    <row r="191" ht="15" hidden="1" spans="1:7">
       <c r="A191" s="12" t="s">
         <v>4665</v>
       </c>
@@ -89011,7 +89034,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="192" ht="15" spans="1:7">
+    <row r="192" ht="15" hidden="1" spans="1:7">
       <c r="A192" s="14" t="s">
         <v>5120</v>
       </c>
@@ -89034,7 +89057,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="193" ht="15" spans="1:7">
+    <row r="193" ht="15" hidden="1" spans="1:7">
       <c r="A193" s="12" t="s">
         <v>3351</v>
       </c>
@@ -89057,7 +89080,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="194" ht="15" spans="1:7">
+    <row r="194" ht="15" hidden="1" spans="1:7">
       <c r="A194" s="14" t="s">
         <v>2773</v>
       </c>
@@ -89080,7 +89103,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="195" ht="15" spans="1:7">
+    <row r="195" ht="15" hidden="1" spans="1:7">
       <c r="A195" s="12" t="s">
         <v>3237</v>
       </c>
@@ -89103,7 +89126,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="196" ht="15" spans="1:7">
+    <row r="196" ht="15" hidden="1" spans="1:7">
       <c r="A196" s="14" t="s">
         <v>2916</v>
       </c>
@@ -89126,7 +89149,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="197" ht="15" spans="1:7">
+    <row r="197" ht="15" hidden="1" spans="1:7">
       <c r="A197" s="12" t="s">
         <v>3124</v>
       </c>
@@ -89149,7 +89172,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="198" ht="15" spans="1:7">
+    <row r="198" ht="15" hidden="1" spans="1:7">
       <c r="A198" s="14" t="s">
         <v>5022</v>
       </c>
@@ -89172,7 +89195,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="199" ht="15" spans="1:7">
+    <row r="199" ht="15" hidden="1" spans="1:7">
       <c r="A199" s="12" t="s">
         <v>3315</v>
       </c>
@@ -89195,7 +89218,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="200" ht="15" spans="1:7">
+    <row r="200" ht="15" hidden="1" spans="1:7">
       <c r="A200" s="14" t="s">
         <v>4962</v>
       </c>
@@ -89218,7 +89241,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" hidden="1" spans="1:7">
       <c r="A201" s="12" t="s">
         <v>5094</v>
       </c>
@@ -89241,7 +89264,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="202" ht="15.75" spans="1:7">
+    <row r="202" ht="15.75" hidden="1" spans="1:7">
       <c r="A202" s="2" t="s">
         <v>4758</v>
       </c>
@@ -89264,7 +89287,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="203" ht="15.75" spans="1:7">
+    <row r="203" ht="15.75" hidden="1" spans="1:7">
       <c r="A203" s="4" t="s">
         <v>4770</v>
       </c>
@@ -89287,7 +89310,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="204" ht="15.75" spans="1:7">
+    <row r="204" ht="15.75" hidden="1" spans="1:7">
       <c r="A204" s="6" t="s">
         <v>3939</v>
       </c>
@@ -89310,7 +89333,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="205" ht="15.75" spans="1:7">
+    <row r="205" ht="15.75" hidden="1" spans="1:7">
       <c r="A205" s="4" t="s">
         <v>2928</v>
       </c>
@@ -89333,7 +89356,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="206" ht="15.75" spans="1:7">
+    <row r="206" ht="15.75" hidden="1" spans="1:7">
       <c r="A206" s="6" t="s">
         <v>6566</v>
       </c>
@@ -89356,7 +89379,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="207" ht="15.75" spans="1:7">
+    <row r="207" ht="15.75" hidden="1" spans="1:7">
       <c r="A207" s="4" t="s">
         <v>6567</v>
       </c>
@@ -89379,7 +89402,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="208" ht="15.75" spans="1:7">
+    <row r="208" ht="15.75" hidden="1" spans="1:7">
       <c r="A208" s="6" t="s">
         <v>2980</v>
       </c>
@@ -89402,7 +89425,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="209" ht="15.75" spans="1:7">
+    <row r="209" ht="15.75" hidden="1" spans="1:7">
       <c r="A209" s="4" t="s">
         <v>3118</v>
       </c>
@@ -89425,7 +89448,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="210" ht="15.75" spans="1:7">
+    <row r="210" ht="15.75" hidden="1" spans="1:7">
       <c r="A210" s="6" t="s">
         <v>4070</v>
       </c>
@@ -89448,7 +89471,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="211" ht="15.75" spans="1:7">
+    <row r="211" ht="15.75" hidden="1" spans="1:7">
       <c r="A211" s="4" t="s">
         <v>6568</v>
       </c>
@@ -89471,7 +89494,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="212" ht="15.75" spans="1:7">
+    <row r="212" ht="15.75" hidden="1" spans="1:7">
       <c r="A212" s="6" t="s">
         <v>3615</v>
       </c>
@@ -89494,7 +89517,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="213" ht="15.75" spans="1:7">
+    <row r="213" ht="15.75" hidden="1" spans="1:7">
       <c r="A213" s="4" t="s">
         <v>3753</v>
       </c>
@@ -89517,7 +89540,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="214" ht="15.75" spans="1:7">
+    <row r="214" ht="15.75" hidden="1" spans="1:7">
       <c r="A214" s="6" t="s">
         <v>2749</v>
       </c>
@@ -89540,7 +89563,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="215" ht="15.75" spans="1:7">
+    <row r="215" ht="15.75" hidden="1" spans="1:7">
       <c r="A215" s="4" t="s">
         <v>5550</v>
       </c>
@@ -89563,7 +89586,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="216" ht="15.75" spans="1:7">
+    <row r="216" ht="15.75" hidden="1" spans="1:7">
       <c r="A216" s="6" t="s">
         <v>5479</v>
       </c>
@@ -89586,7 +89609,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="217" ht="15.75" spans="1:7">
+    <row r="217" ht="15.75" hidden="1" spans="1:7">
       <c r="A217" s="4" t="s">
         <v>3567</v>
       </c>
@@ -89609,7 +89632,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="218" ht="15.75" spans="1:7">
+    <row r="218" ht="15.75" hidden="1" spans="1:7">
       <c r="A218" s="6" t="s">
         <v>3868</v>
       </c>
@@ -89632,7 +89655,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="219" ht="15.75" spans="1:7">
+    <row r="219" ht="15.75" hidden="1" spans="1:7">
       <c r="A219" s="4" t="s">
         <v>3880</v>
       </c>
@@ -89655,7 +89678,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="220" ht="15.75" spans="1:7">
+    <row r="220" ht="15.75" hidden="1" spans="1:7">
       <c r="A220" s="6" t="s">
         <v>2737</v>
       </c>
@@ -89678,7 +89701,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="221" ht="15.75" spans="1:7">
+    <row r="221" ht="15.75" hidden="1" spans="1:7">
       <c r="A221" s="4" t="s">
         <v>2629</v>
       </c>
@@ -89701,7 +89724,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="222" ht="15.75" spans="1:7">
+    <row r="222" ht="15.75" hidden="1" spans="1:7">
       <c r="A222" s="6" t="s">
         <v>4414</v>
       </c>
@@ -89724,7 +89747,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="223" ht="15.75" spans="1:7">
+    <row r="223" ht="15.75" hidden="1" spans="1:7">
       <c r="A223" s="4" t="s">
         <v>2623</v>
       </c>
@@ -89747,7 +89770,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="224" ht="15.75" spans="1:7">
+    <row r="224" ht="15.75" hidden="1" spans="1:7">
       <c r="A224" s="6" t="s">
         <v>4017</v>
       </c>
@@ -89791,7 +89814,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="226" ht="15.75" spans="1:7">
+    <row r="226" ht="15.75" hidden="1" spans="1:7">
       <c r="A226" s="6" t="s">
         <v>4560</v>
       </c>
@@ -89814,7 +89837,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="227" ht="15.75" spans="1:7">
+    <row r="227" ht="15.75" hidden="1" spans="1:7">
       <c r="A227" s="4" t="s">
         <v>4584</v>
       </c>
@@ -89858,7 +89881,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="229" ht="15.75" spans="1:7">
+    <row r="229" ht="15.75" hidden="1" spans="1:7">
       <c r="A229" s="4" t="s">
         <v>3207</v>
       </c>
@@ -89881,7 +89904,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="230" ht="15.75" spans="1:7">
+    <row r="230" ht="15.75" hidden="1" spans="1:7">
       <c r="A230" s="6" t="s">
         <v>4307</v>
       </c>
@@ -89904,7 +89927,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="231" ht="15.75" spans="1:7">
+    <row r="231" ht="15.75" hidden="1" spans="1:7">
       <c r="A231" s="4" t="s">
         <v>1578</v>
       </c>
@@ -89927,7 +89950,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="232" ht="15.75" spans="1:7">
+    <row r="232" ht="15.75" hidden="1" spans="1:7">
       <c r="A232" s="6" t="s">
         <v>3273</v>
       </c>
@@ -89950,7 +89973,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="233" ht="15.75" spans="1:7">
+    <row r="233" ht="15.75" hidden="1" spans="1:7">
       <c r="A233" s="4" t="s">
         <v>3969</v>
       </c>
@@ -89973,7 +89996,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="234" ht="15.75" spans="1:7">
+    <row r="234" ht="15.75" hidden="1" spans="1:7">
       <c r="A234" s="6" t="s">
         <v>2585</v>
       </c>
@@ -89996,7 +90019,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="235" ht="15.75" spans="1:7">
+    <row r="235" ht="15.75" hidden="1" spans="1:7">
       <c r="A235" s="4" t="s">
         <v>3010</v>
       </c>
@@ -90019,7 +90042,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="236" ht="15.75" spans="1:7">
+    <row r="236" ht="15.75" hidden="1" spans="1:7">
       <c r="A236" s="6" t="s">
         <v>4425</v>
       </c>
@@ -90042,7 +90065,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="237" ht="15.75" spans="1:7">
+    <row r="237" ht="15.75" hidden="1" spans="1:7">
       <c r="A237" s="4" t="s">
         <v>3627</v>
       </c>
@@ -90065,7 +90088,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="238" ht="15.75" spans="1:7">
+    <row r="238" ht="15.75" hidden="1" spans="1:7">
       <c r="A238" s="6" t="s">
         <v>4466</v>
       </c>
@@ -90088,7 +90111,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="239" ht="15.75" spans="1:7">
+    <row r="239" ht="15.75" hidden="1" spans="1:7">
       <c r="A239" s="4" t="s">
         <v>3154</v>
       </c>
@@ -90111,7 +90134,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="240" ht="15.75" spans="1:7">
+    <row r="240" ht="15.75" hidden="1" spans="1:7">
       <c r="A240" s="6" t="s">
         <v>2779</v>
       </c>
@@ -90134,7 +90157,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="241" ht="15.75" spans="1:7">
+    <row r="241" ht="15.75" hidden="1" spans="1:7">
       <c r="A241" s="4" t="s">
         <v>4431</v>
       </c>
@@ -90157,7 +90180,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="242" ht="15.75" spans="1:7">
+    <row r="242" ht="15.75" hidden="1" spans="1:7">
       <c r="A242" s="6" t="s">
         <v>3812</v>
       </c>
@@ -90180,7 +90203,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="243" ht="15.75" spans="1:7">
+    <row r="243" ht="15.75" hidden="1" spans="1:7">
       <c r="A243" s="4" t="s">
         <v>2962</v>
       </c>
@@ -90203,7 +90226,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="244" ht="15.75" spans="1:7">
+    <row r="244" ht="15.75" hidden="1" spans="1:7">
       <c r="A244" s="6" t="s">
         <v>3393</v>
       </c>
@@ -90247,7 +90270,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="246" ht="15.75" spans="1:7">
+    <row r="246" ht="15.75" hidden="1" spans="1:7">
       <c r="A246" s="6" t="s">
         <v>3159</v>
       </c>
@@ -90270,7 +90293,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="247" ht="15.75" spans="1:7">
+    <row r="247" ht="15.75" hidden="1" spans="1:7">
       <c r="A247" s="4" t="s">
         <v>3417</v>
       </c>
@@ -90293,7 +90316,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="248" ht="15.75" spans="1:7">
+    <row r="248" ht="15.75" hidden="1" spans="1:7">
       <c r="A248" s="6" t="s">
         <v>3834</v>
       </c>
@@ -90316,7 +90339,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="249" ht="15.75" spans="1:7">
+    <row r="249" ht="15.75" hidden="1" spans="1:7">
       <c r="A249" s="4" t="s">
         <v>3321</v>
       </c>
@@ -90339,7 +90362,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="250" ht="15.75" spans="1:7">
+    <row r="250" ht="15.75" hidden="1" spans="1:7">
       <c r="A250" s="6" t="s">
         <v>3687</v>
       </c>
@@ -90362,7 +90385,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="251" ht="15.75" spans="1:7">
+    <row r="251" ht="15.75" hidden="1" spans="1:7">
       <c r="A251" s="4" t="s">
         <v>4944</v>
       </c>
@@ -90406,7 +90429,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="253" ht="15.75" spans="1:7">
+    <row r="253" ht="15.75" hidden="1" spans="1:7">
       <c r="A253" s="4" t="s">
         <v>4301</v>
       </c>
@@ -90429,7 +90452,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="254" ht="15.75" spans="1:7">
+    <row r="254" ht="15.75" hidden="1" spans="1:7">
       <c r="A254" s="6" t="s">
         <v>5568</v>
       </c>
@@ -90452,7 +90475,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="255" ht="15.75" spans="1:7">
+    <row r="255" ht="15.75" hidden="1" spans="1:7">
       <c r="A255" s="4" t="s">
         <v>3573</v>
       </c>
@@ -90475,7 +90498,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="256" ht="15.75" spans="1:7">
+    <row r="256" ht="15.75" hidden="1" spans="1:7">
       <c r="A256" s="6" t="s">
         <v>4448</v>
       </c>
@@ -90498,7 +90521,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="257" ht="15.75" spans="1:7">
+    <row r="257" ht="15.75" hidden="1" spans="1:7">
       <c r="A257" s="4" t="s">
         <v>4005</v>
       </c>
@@ -90521,7 +90544,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="258" ht="15.75" spans="1:7">
+    <row r="258" ht="15.75" hidden="1" spans="1:7">
       <c r="A258" s="6" t="s">
         <v>3447</v>
       </c>
@@ -90544,7 +90567,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="259" ht="15.75" spans="1:7">
+    <row r="259" ht="15.75" hidden="1" spans="1:7">
       <c r="A259" s="4" t="s">
         <v>4064</v>
       </c>
@@ -90567,7 +90590,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="260" ht="15.75" spans="1:7">
+    <row r="260" ht="15.75" hidden="1" spans="1:7">
       <c r="A260" s="6" t="s">
         <v>4408</v>
       </c>
@@ -90590,7 +90613,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="261" ht="15.75" spans="1:7">
+    <row r="261" ht="15.75" hidden="1" spans="1:7">
       <c r="A261" s="4" t="s">
         <v>3862</v>
       </c>
@@ -90613,7 +90636,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="262" ht="15.75" spans="1:7">
+    <row r="262" ht="15.75" hidden="1" spans="1:7">
       <c r="A262" s="6" t="s">
         <v>2875</v>
       </c>
@@ -90636,7 +90659,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="263" ht="15.75" spans="1:7">
+    <row r="263" ht="15.75" hidden="1" spans="1:7">
       <c r="A263" s="4" t="s">
         <v>4602</v>
       </c>
@@ -90659,7 +90682,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="264" ht="15.75" spans="1:7">
+    <row r="264" ht="15.75" hidden="1" spans="1:7">
       <c r="A264" s="6" t="s">
         <v>2725</v>
       </c>
@@ -90682,7 +90705,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="265" ht="15.75" spans="1:7">
+    <row r="265" ht="15.75" hidden="1" spans="1:7">
       <c r="A265" s="4" t="s">
         <v>5622</v>
       </c>
@@ -90705,7 +90728,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="266" ht="15.75" spans="1:7">
+    <row r="266" ht="15.75" hidden="1" spans="1:7">
       <c r="A266" s="6" t="s">
         <v>3957</v>
       </c>
@@ -90728,7 +90751,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="267" ht="15.75" spans="1:7">
+    <row r="267" ht="15.75" hidden="1" spans="1:7">
       <c r="A267" s="4" t="s">
         <v>2715</v>
       </c>
@@ -90751,7 +90774,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="268" ht="15.75" spans="1:7">
+    <row r="268" ht="15.75" hidden="1" spans="1:7">
       <c r="A268" s="6" t="s">
         <v>3839</v>
       </c>
@@ -90795,7 +90818,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="270" ht="15.75" spans="1:7">
+    <row r="270" ht="15.75" hidden="1" spans="1:7">
       <c r="A270" s="6" t="s">
         <v>2635</v>
       </c>
@@ -90818,7 +90841,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="271" ht="15.75" spans="1:7">
+    <row r="271" ht="15.75" hidden="1" spans="1:7">
       <c r="A271" s="4" t="s">
         <v>4330</v>
       </c>
@@ -90841,7 +90864,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="272" ht="15.75" spans="1:7">
+    <row r="272" ht="15.75" hidden="1" spans="1:7">
       <c r="A272" s="6" t="s">
         <v>4283</v>
       </c>
@@ -90864,7 +90887,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="273" ht="15.75" spans="1:7">
+    <row r="273" ht="15.75" hidden="1" spans="1:7">
       <c r="A273" s="4" t="s">
         <v>3717</v>
       </c>
@@ -90887,7 +90910,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="274" ht="15.75" spans="1:7">
+    <row r="274" ht="15.75" hidden="1" spans="1:7">
       <c r="A274" s="6" t="s">
         <v>6571</v>
       </c>
@@ -90910,7 +90933,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="275" ht="15.75" spans="1:7">
+    <row r="275" ht="15.75" hidden="1" spans="1:7">
       <c r="A275" s="4" t="s">
         <v>3621</v>
       </c>
@@ -90933,7 +90956,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="276" ht="15.75" spans="1:7">
+    <row r="276" ht="15.75" hidden="1" spans="1:7">
       <c r="A276" s="6" t="s">
         <v>4892</v>
       </c>
@@ -90956,7 +90979,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="277" ht="15.75" spans="1:7">
+    <row r="277" ht="15.75" hidden="1" spans="1:7">
       <c r="A277" s="4" t="s">
         <v>4694</v>
       </c>
@@ -90979,7 +91002,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="278" ht="15.75" spans="1:7">
+    <row r="278" ht="15.75" hidden="1" spans="1:7">
       <c r="A278" s="6" t="s">
         <v>3910</v>
       </c>
@@ -91002,7 +91025,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="279" ht="15.75" spans="1:7">
+    <row r="279" ht="15.75" hidden="1" spans="1:7">
       <c r="A279" s="4" t="s">
         <v>5173</v>
       </c>
@@ -91025,7 +91048,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="280" ht="15.75" spans="1:7">
+    <row r="280" ht="15.75" hidden="1" spans="1:7">
       <c r="A280" s="6" t="s">
         <v>4719</v>
       </c>
@@ -91048,7 +91071,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="281" ht="15.75" spans="1:7">
+    <row r="281" ht="15.75" hidden="1" spans="1:7">
       <c r="A281" s="4" t="s">
         <v>6572</v>
       </c>
@@ -91092,7 +91115,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="283" ht="15.75" spans="1:7">
+    <row r="283" ht="15.75" hidden="1" spans="1:7">
       <c r="A283" s="4" t="s">
         <v>4800</v>
       </c>
@@ -91136,7 +91159,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="285" ht="15.75" spans="1:7">
+    <row r="285" ht="15.75" hidden="1" spans="1:7">
       <c r="A285" s="4" t="s">
         <v>3441</v>
       </c>
@@ -91159,7 +91182,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="286" ht="15.75" spans="1:7">
+    <row r="286" ht="15.75" hidden="1" spans="1:7">
       <c r="A286" s="6" t="s">
         <v>4041</v>
       </c>
@@ -91203,7 +91226,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="288" ht="15.75" spans="1:7">
+    <row r="288" ht="15.75" hidden="1" spans="1:7">
       <c r="A288" s="6" t="s">
         <v>2709</v>
       </c>
@@ -91226,7 +91249,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="289" ht="15.75" spans="1:7">
+    <row r="289" ht="15.75" hidden="1" spans="1:7">
       <c r="A289" s="4" t="s">
         <v>4618</v>
       </c>
@@ -91249,7 +91272,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="290" ht="15.75" spans="1:7">
+    <row r="290" ht="15.75" hidden="1" spans="1:7">
       <c r="A290" s="6" t="s">
         <v>4513</v>
       </c>
@@ -91272,7 +91295,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="291" ht="15.75" spans="1:7">
+    <row r="291" ht="15.75" hidden="1" spans="1:7">
       <c r="A291" s="4" t="s">
         <v>6574</v>
       </c>
@@ -91295,7 +91318,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="292" ht="15.75" spans="1:7">
+    <row r="292" ht="15.75" hidden="1" spans="1:7">
       <c r="A292" s="6" t="s">
         <v>2851</v>
       </c>
@@ -91318,7 +91341,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="293" ht="15.75" spans="1:7">
+    <row r="293" ht="15.75" hidden="1" spans="1:7">
       <c r="A293" s="4" t="s">
         <v>2686</v>
       </c>
@@ -91341,7 +91364,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="294" ht="15.75" spans="1:7">
+    <row r="294" ht="15.75" hidden="1" spans="1:7">
       <c r="A294" s="6" t="s">
         <v>6575</v>
       </c>
@@ -91364,7 +91387,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="295" ht="15.75" spans="1:7">
+    <row r="295" ht="15.75" hidden="1" spans="1:7">
       <c r="A295" s="4" t="s">
         <v>4490</v>
       </c>
@@ -91387,7 +91410,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="296" ht="15.75" spans="1:7">
+    <row r="296" ht="15.75" hidden="1" spans="1:7">
       <c r="A296" s="6" t="s">
         <v>4058</v>
       </c>
@@ -91410,7 +91433,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="297" ht="15.75" spans="1:7">
+    <row r="297" ht="15.75" hidden="1" spans="1:7">
       <c r="A297" s="4" t="s">
         <v>5526</v>
       </c>
@@ -91433,7 +91456,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="298" ht="15.75" spans="1:7">
+    <row r="298" ht="15.75" hidden="1" spans="1:7">
       <c r="A298" s="6" t="s">
         <v>4023</v>
       </c>
@@ -91456,7 +91479,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="299" ht="15.75" spans="1:7">
+    <row r="299" ht="15.75" hidden="1" spans="1:7">
       <c r="A299" s="4" t="s">
         <v>3639</v>
       </c>
@@ -91479,7 +91502,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="300" ht="15.75" spans="1:7">
+    <row r="300" ht="15.75" hidden="1" spans="1:7">
       <c r="A300" s="6" t="s">
         <v>2761</v>
       </c>
@@ -91502,7 +91525,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="301" ht="15" spans="1:7">
+    <row r="301" ht="15.75" spans="1:7">
       <c r="A301" s="4" t="s">
         <v>6071</v>
       </c>
@@ -91523,7 +91546,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="302" ht="15.75" spans="1:7">
+    <row r="302" ht="15.75" hidden="1" spans="1:7">
       <c r="A302" s="16" t="s">
         <v>2863</v>
       </c>
@@ -91567,7 +91590,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="304" ht="15.75" spans="1:7">
+    <row r="304" ht="15.75" hidden="1" spans="1:7">
       <c r="A304" s="6" t="s">
         <v>5132</v>
       </c>
@@ -91590,7 +91613,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="305" ht="15.75" spans="1:7">
+    <row r="305" ht="15.75" hidden="1" spans="1:7">
       <c r="A305" s="4" t="s">
         <v>6576</v>
       </c>
@@ -91613,7 +91636,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="306" ht="15.75" spans="1:7">
+    <row r="306" ht="15.75" hidden="1" spans="1:7">
       <c r="A306" s="6" t="s">
         <v>4624</v>
       </c>
@@ -91636,7 +91659,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="307" ht="15.75" spans="1:7">
+    <row r="307" ht="15.75" hidden="1" spans="1:7">
       <c r="A307" s="4" t="s">
         <v>5514</v>
       </c>
@@ -91659,7 +91682,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="308" ht="15.75" spans="1:7">
+    <row r="308" ht="15.75" hidden="1" spans="1:7">
       <c r="A308" s="6" t="s">
         <v>5646</v>
       </c>
@@ -91682,7 +91705,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="309" ht="15.75" spans="1:7">
+    <row r="309" ht="15.75" hidden="1" spans="1:7">
       <c r="A309" s="4" t="s">
         <v>5610</v>
       </c>
@@ -91705,7 +91728,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="310" ht="15.75" spans="1:7">
+    <row r="310" ht="15.75" hidden="1" spans="1:7">
       <c r="A310" s="6" t="s">
         <v>4501</v>
       </c>
@@ -91728,7 +91751,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="311" ht="15.75" spans="1:7">
+    <row r="311" ht="15.75" hidden="1" spans="1:7">
       <c r="A311" s="4" t="s">
         <v>4336</v>
       </c>
@@ -91751,7 +91774,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="312" ht="15.75" spans="1:7">
+    <row r="312" ht="15.75" hidden="1" spans="1:7">
       <c r="A312" s="6" t="s">
         <v>6577</v>
       </c>
@@ -91774,7 +91797,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="313" ht="15.75" spans="1:7">
+    <row r="313" ht="15.75" hidden="1" spans="1:7">
       <c r="A313" s="4" t="s">
         <v>4950</v>
       </c>
@@ -91797,7 +91820,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="314" ht="15.75" spans="1:7">
+    <row r="314" ht="15.75" hidden="1" spans="1:7">
       <c r="A314" s="6" t="s">
         <v>2743</v>
       </c>
@@ -91820,7 +91843,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="315" ht="15.75" spans="1:7">
+    <row r="315" ht="15.75" hidden="1" spans="1:7">
       <c r="A315" s="4" t="s">
         <v>3465</v>
       </c>
@@ -91843,7 +91866,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="316" ht="15.75" spans="1:7">
+    <row r="316" ht="15.75" hidden="1" spans="1:7">
       <c r="A316" s="6" t="s">
         <v>5114</v>
       </c>
@@ -91866,7 +91889,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="317" ht="15.75" spans="1:7">
+    <row r="317" ht="15.75" hidden="1" spans="1:7">
       <c r="A317" s="4" t="s">
         <v>4926</v>
       </c>
@@ -91889,7 +91912,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="318" ht="15.75" spans="1:7">
+    <row r="318" ht="15.75" hidden="1" spans="1:7">
       <c r="A318" s="6" t="s">
         <v>5109</v>
       </c>
@@ -91912,7 +91935,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="319" ht="15.75" spans="1:7">
+    <row r="319" ht="15.75" hidden="1" spans="1:7">
       <c r="A319" s="4" t="s">
         <v>4460</v>
       </c>
@@ -91935,7 +91958,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="320" ht="15.75" spans="1:7">
+    <row r="320" ht="15.75" hidden="1" spans="1:7">
       <c r="A320" s="6" t="s">
         <v>3681</v>
       </c>
@@ -91958,7 +91981,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="321" ht="15.75" spans="1:7">
+    <row r="321" ht="15.75" hidden="1" spans="1:7">
       <c r="A321" s="4" t="s">
         <v>2827</v>
       </c>
@@ -91981,7 +92004,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="322" ht="15.75" spans="1:7">
+    <row r="322" ht="15.75" hidden="1" spans="1:7">
       <c r="A322" s="6" t="s">
         <v>2845</v>
       </c>
@@ -92004,7 +92027,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="323" ht="15.75" spans="1:7">
+    <row r="323" ht="15.75" hidden="1" spans="1:7">
       <c r="A323" s="4" t="s">
         <v>4076</v>
       </c>
@@ -92027,7 +92050,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="324" ht="15.75" spans="1:7">
+    <row r="324" ht="15.75" hidden="1" spans="1:7">
       <c r="A324" s="6" t="s">
         <v>4519</v>
       </c>
@@ -92050,7 +92073,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="325" ht="15.75" spans="1:7">
+    <row r="325" ht="15.75" hidden="1" spans="1:7">
       <c r="A325" s="4" t="s">
         <v>2904</v>
       </c>
@@ -92073,7 +92096,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="326" ht="15.75" spans="1:7">
+    <row r="326" ht="15.75" hidden="1" spans="1:7">
       <c r="A326" s="6" t="s">
         <v>3483</v>
       </c>
@@ -92096,7 +92119,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="327" ht="15.75" spans="1:7">
+    <row r="327" ht="15.75" hidden="1" spans="1:7">
       <c r="A327" s="4" t="s">
         <v>4082</v>
       </c>
@@ -92119,7 +92142,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="328" ht="15.75" spans="1:7">
+    <row r="328" ht="15.75" hidden="1" spans="1:7">
       <c r="A328" s="6" t="s">
         <v>2785</v>
       </c>
@@ -92142,7 +92165,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="329" ht="15.75" spans="1:7">
+    <row r="329" ht="15.75" hidden="1" spans="1:7">
       <c r="A329" s="4" t="s">
         <v>3267</v>
       </c>
@@ -92165,7 +92188,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="330" ht="15.75" spans="1:7">
+    <row r="330" ht="15.75" hidden="1" spans="1:7">
       <c r="A330" s="6" t="s">
         <v>2910</v>
       </c>
@@ -92188,7 +92211,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="331" ht="15.75" spans="1:7">
+    <row r="331" ht="15.75" hidden="1" spans="1:7">
       <c r="A331" s="4" t="s">
         <v>3213</v>
       </c>
@@ -92211,7 +92234,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="332" ht="15.75" spans="1:7">
+    <row r="332" ht="15.75" hidden="1" spans="1:7">
       <c r="A332" s="6" t="s">
         <v>3735</v>
       </c>
@@ -92234,7 +92257,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="333" ht="15.75" spans="1:7">
+    <row r="333" ht="15.75" hidden="1" spans="1:7">
       <c r="A333" s="4" t="s">
         <v>6578</v>
       </c>
@@ -92257,7 +92280,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="334" ht="15.75" spans="1:7">
+    <row r="334" ht="15.75" hidden="1" spans="1:7">
       <c r="A334" s="6" t="s">
         <v>3136</v>
       </c>
@@ -92280,7 +92303,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="335" ht="15.75" spans="1:7">
+    <row r="335" ht="15.75" hidden="1" spans="1:7">
       <c r="A335" s="4" t="s">
         <v>3303</v>
       </c>
@@ -92303,7 +92326,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="336" ht="15.75" spans="1:7">
+    <row r="336" ht="15.75" hidden="1" spans="1:7">
       <c r="A336" s="6" t="s">
         <v>4726</v>
       </c>
@@ -92326,7 +92349,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="337" ht="15.75" spans="1:7">
+    <row r="337" ht="15.75" hidden="1" spans="1:7">
       <c r="A337" s="4" t="s">
         <v>4181</v>
       </c>
@@ -92349,7 +92372,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="338" ht="15.75" spans="1:7">
+    <row r="338" ht="15.75" hidden="1" spans="1:7">
       <c r="A338" s="6" t="s">
         <v>4193</v>
       </c>
@@ -92372,7 +92395,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="339" ht="15.75" spans="1:7">
+    <row r="339" ht="15.75" hidden="1" spans="1:7">
       <c r="A339" s="4" t="s">
         <v>4372</v>
       </c>
@@ -92395,7 +92418,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="340" ht="15.75" spans="1:7">
+    <row r="340" ht="15.75" hidden="1" spans="1:7">
       <c r="A340" s="6" t="s">
         <v>2731</v>
       </c>
@@ -92418,7 +92441,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="341" ht="15.75" spans="1:7">
+    <row r="341" ht="15.75" hidden="1" spans="1:7">
       <c r="A341" s="4" t="s">
         <v>3874</v>
       </c>
@@ -92441,7 +92464,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="342" ht="15.75" spans="1:7">
+    <row r="342" ht="15.75" hidden="1" spans="1:7">
       <c r="A342" s="6" t="s">
         <v>5126</v>
       </c>
@@ -92464,7 +92487,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="343" ht="15.75" spans="1:7">
+    <row r="343" ht="15.75" hidden="1" spans="1:7">
       <c r="A343" s="4" t="s">
         <v>3285</v>
       </c>
@@ -92487,7 +92510,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="344" ht="15.75" spans="1:7">
+    <row r="344" ht="15.75" hidden="1" spans="1:7">
       <c r="A344" s="6" t="s">
         <v>4029</v>
       </c>
@@ -92510,7 +92533,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="345" ht="15.75" spans="1:7">
+    <row r="345" ht="15.75" hidden="1" spans="1:7">
       <c r="A345" s="4" t="s">
         <v>3794</v>
       </c>
@@ -92533,7 +92556,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="346" ht="15.75" spans="1:7">
+    <row r="346" ht="15.75" hidden="1" spans="1:7">
       <c r="A346" s="6" t="s">
         <v>2755</v>
       </c>
@@ -92556,7 +92579,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="347" ht="15.75" spans="1:7">
+    <row r="347" ht="15.75" hidden="1" spans="1:7">
       <c r="A347" s="4" t="s">
         <v>3327</v>
       </c>
@@ -92579,7 +92602,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="348" ht="15.75" spans="1:7">
+    <row r="348" ht="15.75" hidden="1" spans="1:7">
       <c r="A348" s="6" t="s">
         <v>4832</v>
       </c>
@@ -92602,7 +92625,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="349" ht="15.75" spans="1:7">
+    <row r="349" ht="15.75" hidden="1" spans="1:7">
       <c r="A349" s="4" t="s">
         <v>4384</v>
       </c>
@@ -92625,7 +92648,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="350" ht="15.75" spans="1:7">
+    <row r="350" ht="15.75" hidden="1" spans="1:7">
       <c r="A350" s="6" t="s">
         <v>4229</v>
       </c>
@@ -92648,7 +92671,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="351" ht="15.75" spans="1:7">
+    <row r="351" ht="15.75" hidden="1" spans="1:7">
       <c r="A351" s="4" t="s">
         <v>3022</v>
       </c>
@@ -92671,7 +92694,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="352" ht="15.75" spans="1:7">
+    <row r="352" ht="15.75" hidden="1" spans="1:7">
       <c r="A352" s="6" t="s">
         <v>3231</v>
       </c>
@@ -92694,7 +92717,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="353" ht="15.75" spans="1:7">
+    <row r="353" ht="15.75" hidden="1" spans="1:7">
       <c r="A353" s="4" t="s">
         <v>3776</v>
       </c>
@@ -92717,7 +92740,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="354" ht="15.75" spans="1:7">
+    <row r="354" ht="15.75" hidden="1" spans="1:7">
       <c r="A354" s="6" t="s">
         <v>3543</v>
       </c>
@@ -92740,7 +92763,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="355" ht="15.75" spans="1:7">
+    <row r="355" ht="15.75" hidden="1" spans="1:7">
       <c r="A355" s="4" t="s">
         <v>3309</v>
       </c>
@@ -92784,7 +92807,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="357" ht="15.75" spans="1:7">
+    <row r="357" ht="15.75" hidden="1" spans="1:7">
       <c r="A357" s="4" t="s">
         <v>4342</v>
       </c>
@@ -92807,7 +92830,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="358" ht="15.75" spans="1:7">
+    <row r="358" ht="15.75" hidden="1" spans="1:7">
       <c r="A358" s="6" t="s">
         <v>3531</v>
       </c>
@@ -92830,7 +92853,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="359" ht="15.75" spans="1:7">
+    <row r="359" ht="15.75" hidden="1" spans="1:7">
       <c r="A359" s="4" t="s">
         <v>5544</v>
       </c>
@@ -92853,7 +92876,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="360" ht="15.75" spans="1:7">
+    <row r="360" ht="15.75" hidden="1" spans="1:7">
       <c r="A360" s="6" t="s">
         <v>3130</v>
       </c>
@@ -92876,7 +92899,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="361" ht="15.75" spans="1:7">
+    <row r="361" ht="15.75" hidden="1" spans="1:7">
       <c r="A361" s="4" t="s">
         <v>5058</v>
       </c>
@@ -92920,7 +92943,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="363" ht="15.75" spans="1:7">
+    <row r="363" ht="15.75" hidden="1" spans="1:7">
       <c r="A363" s="4" t="s">
         <v>6580</v>
       </c>
@@ -92943,7 +92966,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="364" ht="15.75" spans="1:7">
+    <row r="364" ht="15.75" hidden="1" spans="1:7">
       <c r="A364" s="6" t="s">
         <v>5508</v>
       </c>
@@ -92966,7 +92989,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="365" ht="15.75" spans="1:7">
+    <row r="365" ht="15.75" hidden="1" spans="1:7">
       <c r="A365" s="4" t="s">
         <v>4454</v>
       </c>
@@ -92989,7 +93012,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="366" ht="15.75" spans="1:7">
+    <row r="366" ht="15.75" hidden="1" spans="1:7">
       <c r="A366" s="6" t="s">
         <v>4596</v>
       </c>
@@ -93012,7 +93035,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="367" ht="15.75" spans="1:7">
+    <row r="367" ht="15.75" hidden="1" spans="1:7">
       <c r="A367" s="4" t="s">
         <v>3507</v>
       </c>
@@ -93035,7 +93058,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="368" ht="15.75" spans="1:7">
+    <row r="368" ht="15.75" hidden="1" spans="1:7">
       <c r="A368" s="6" t="s">
         <v>3922</v>
       </c>
@@ -93058,7 +93081,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="369" ht="15.75" spans="1:7">
+    <row r="369" ht="15.75" hidden="1" spans="1:7">
       <c r="A369" s="4" t="s">
         <v>4998</v>
       </c>
@@ -93081,7 +93104,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="370" ht="15.75" spans="1:7">
+    <row r="370" ht="15.75" hidden="1" spans="1:7">
       <c r="A370" s="6" t="s">
         <v>5004</v>
       </c>
@@ -93104,7 +93127,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="371" ht="15.75" spans="1:7">
+    <row r="371" ht="15.75" hidden="1" spans="1:7">
       <c r="A371" s="4" t="s">
         <v>2797</v>
       </c>
@@ -93127,7 +93150,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="372" ht="15.75" spans="1:7">
+    <row r="372" ht="15.75" hidden="1" spans="1:7">
       <c r="A372" s="6" t="s">
         <v>3851</v>
       </c>
@@ -93150,7 +93173,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="373" ht="15.75" spans="1:7">
+    <row r="373" ht="15.75" hidden="1" spans="1:7">
       <c r="A373" s="4" t="s">
         <v>3675</v>
       </c>
@@ -93173,7 +93196,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="374" ht="15.75" spans="1:7">
+    <row r="374" ht="15.75" hidden="1" spans="1:7">
       <c r="A374" s="6" t="s">
         <v>4873</v>
       </c>
@@ -93196,7 +93219,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="375" ht="15.75" spans="1:7">
+    <row r="375" ht="15.75" hidden="1" spans="1:7">
       <c r="A375" s="4" t="s">
         <v>3555</v>
       </c>
@@ -93219,7 +93242,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="376" ht="15.75" spans="1:7">
+    <row r="376" ht="15.75" hidden="1" spans="1:7">
       <c r="A376" s="6" t="s">
         <v>6581</v>
       </c>
@@ -93242,7 +93265,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="377" ht="15.75" spans="1:7">
+    <row r="377" ht="15.75" hidden="1" spans="1:7">
       <c r="A377" s="4" t="s">
         <v>6582</v>
       </c>
@@ -93265,7 +93288,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="378" ht="15.75" spans="1:7">
+    <row r="378" ht="15.75" hidden="1" spans="1:7">
       <c r="A378" s="6" t="s">
         <v>6583</v>
       </c>
@@ -93288,7 +93311,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="379" ht="15.75" spans="1:7">
+    <row r="379" ht="15.75" hidden="1" spans="1:7">
       <c r="A379" s="4" t="s">
         <v>6584</v>
       </c>
@@ -93311,7 +93334,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="380" ht="15.75" spans="1:7">
+    <row r="380" ht="15.75" hidden="1" spans="1:7">
       <c r="A380" s="6" t="s">
         <v>5592</v>
       </c>
@@ -93334,7 +93357,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="381" ht="15.75" spans="1:7">
+    <row r="381" ht="15.75" hidden="1" spans="1:7">
       <c r="A381" s="4" t="s">
         <v>5586</v>
       </c>
@@ -93357,7 +93380,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="382" ht="15.75" spans="1:7">
+    <row r="382" ht="15.75" hidden="1" spans="1:7">
       <c r="A382" s="6" t="s">
         <v>3758</v>
       </c>
@@ -93380,7 +93403,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="383" ht="15.75" spans="1:7">
+    <row r="383" ht="15.75" hidden="1" spans="1:7">
       <c r="A383" s="4" t="s">
         <v>5502</v>
       </c>
@@ -93403,7 +93426,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="384" ht="15.75" spans="1:7">
+    <row r="384" ht="15.75" hidden="1" spans="1:7">
       <c r="A384" s="6" t="s">
         <v>4612</v>
       </c>
@@ -93426,7 +93449,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="385" ht="15.75" spans="1:7">
+    <row r="385" ht="15.75" hidden="1" spans="1:7">
       <c r="A385" s="4" t="s">
         <v>3189</v>
       </c>
@@ -93449,7 +93472,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="386" ht="15.75" spans="1:7">
+    <row r="386" ht="15.75" hidden="1" spans="1:7">
       <c r="A386" s="6" t="s">
         <v>5628</v>
       </c>
@@ -93472,7 +93495,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="387" ht="15.75" spans="1:7">
+    <row r="387" ht="15.75" hidden="1" spans="1:7">
       <c r="A387" s="4" t="s">
         <v>3148</v>
       </c>
@@ -93495,7 +93518,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="388" ht="15.75" spans="1:7">
+    <row r="388" ht="15.75" hidden="1" spans="1:7">
       <c r="A388" s="6" t="s">
         <v>3423</v>
       </c>
@@ -93518,7 +93541,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="389" ht="15.75" spans="1:7">
+    <row r="389" ht="15.75" hidden="1" spans="1:7">
       <c r="A389" s="4" t="s">
         <v>4420</v>
       </c>
@@ -93562,7 +93585,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="391" ht="15.75" spans="1:7">
+    <row r="391" ht="15.75" hidden="1" spans="1:7">
       <c r="A391" s="4" t="s">
         <v>3046</v>
       </c>
@@ -93585,7 +93608,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="392" ht="15.75" spans="1:7">
+    <row r="392" ht="15.75" hidden="1" spans="1:7">
       <c r="A392" s="6" t="s">
         <v>3345</v>
       </c>
@@ -93608,7 +93631,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="393" ht="15.75" spans="1:7">
+    <row r="393" ht="15.75" hidden="1" spans="1:7">
       <c r="A393" s="4" t="s">
         <v>2815</v>
       </c>
@@ -93631,7 +93654,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="394" ht="15.75" spans="1:7">
+    <row r="394" ht="15.75" hidden="1" spans="1:7">
       <c r="A394" s="6" t="s">
         <v>2698</v>
       </c>
@@ -93654,7 +93677,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="395" ht="15.75" spans="1:7">
+    <row r="395" ht="15.75" hidden="1" spans="1:7">
       <c r="A395" s="4" t="s">
         <v>4442</v>
       </c>
@@ -93677,7 +93700,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="396" ht="15.75" spans="1:7">
+    <row r="396" ht="15.75" hidden="1" spans="1:7">
       <c r="A396" s="6" t="s">
         <v>3857</v>
       </c>
@@ -93700,7 +93723,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="397" ht="15.75" spans="1:7">
+    <row r="397" ht="15.75" hidden="1" spans="1:7">
       <c r="A397" s="4" t="s">
         <v>3723</v>
       </c>
@@ -93723,7 +93746,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="398" ht="15.75" spans="1:7">
+    <row r="398" ht="15.75" hidden="1" spans="1:7">
       <c r="A398" s="6" t="s">
         <v>5574</v>
       </c>
@@ -93746,7 +93769,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="399" ht="15.75" spans="1:7">
+    <row r="399" ht="15.75" hidden="1" spans="1:7">
       <c r="A399" s="4" t="s">
         <v>3040</v>
       </c>
@@ -93769,7 +93792,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="400" ht="15.75" spans="1:7">
+    <row r="400" ht="15.75" hidden="1" spans="1:7">
       <c r="A400" s="6" t="s">
         <v>6586</v>
       </c>
@@ -93792,7 +93815,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="401" ht="15" spans="1:7">
+    <row r="401" ht="15" hidden="1" spans="1:7">
       <c r="A401" s="4" t="s">
         <v>2839</v>
       </c>
@@ -93815,7 +93838,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="402" ht="15.75" spans="1:7">
+    <row r="402" ht="15.75" hidden="1" spans="1:7">
       <c r="A402" s="16" t="s">
         <v>5604</v>
       </c>
@@ -93838,7 +93861,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="403" ht="15.75" spans="1:7">
+    <row r="403" ht="15.75" hidden="1" spans="1:7">
       <c r="A403" s="4" t="s">
         <v>3537</v>
       </c>
@@ -93861,7 +93884,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="404" ht="15.75" spans="1:7">
+    <row r="404" ht="15.75" hidden="1" spans="1:7">
       <c r="A404" s="6" t="s">
         <v>4531</v>
       </c>
@@ -93884,7 +93907,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="405" ht="15.75" spans="1:7">
+    <row r="405" ht="15.75" hidden="1" spans="1:7">
       <c r="A405" s="4" t="s">
         <v>5598</v>
       </c>
@@ -93907,7 +93930,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="406" ht="15.75" spans="1:7">
+    <row r="406" ht="15.75" hidden="1" spans="1:7">
       <c r="A406" s="6" t="s">
         <v>4035</v>
       </c>
@@ -93930,7 +93953,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="407" ht="15.75" spans="1:7">
+    <row r="407" ht="15.75" hidden="1" spans="1:7">
       <c r="A407" s="4" t="s">
         <v>5161</v>
       </c>
@@ -93953,7 +93976,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="408" ht="15.75" spans="1:7">
+    <row r="408" ht="15.75" hidden="1" spans="1:7">
       <c r="A408" s="6" t="s">
         <v>6587</v>
       </c>
@@ -93976,7 +93999,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="409" ht="15.75" spans="1:7">
+    <row r="409" ht="15.75" hidden="1" spans="1:7">
       <c r="A409" s="4" t="s">
         <v>2992</v>
       </c>
@@ -93999,7 +94022,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="410" ht="15.75" spans="1:7">
+    <row r="410" ht="15.75" hidden="1" spans="1:7">
       <c r="A410" s="6" t="s">
         <v>4354</v>
       </c>
@@ -94022,7 +94045,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="411" ht="15.75" spans="1:7">
+    <row r="411" ht="15.75" hidden="1" spans="1:7">
       <c r="A411" s="4" t="s">
         <v>4671</v>
       </c>
@@ -94045,7 +94068,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="412" ht="15.75" spans="1:7">
+    <row r="412" ht="15.75" hidden="1" spans="1:7">
       <c r="A412" s="6" t="s">
         <v>4259</v>
       </c>
@@ -94068,7 +94091,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="413" ht="15.75" spans="1:7">
+    <row r="413" ht="15.75" hidden="1" spans="1:7">
       <c r="A413" s="4" t="s">
         <v>3741</v>
       </c>
@@ -94091,7 +94114,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="414" ht="15.75" spans="1:7">
+    <row r="414" ht="15.75" hidden="1" spans="1:7">
       <c r="A414" s="6" t="s">
         <v>4011</v>
       </c>
@@ -94114,7 +94137,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="415" ht="15.75" spans="1:7">
+    <row r="415" ht="15.75" hidden="1" spans="1:7">
       <c r="A415" s="4" t="s">
         <v>3333</v>
       </c>
@@ -94137,7 +94160,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="416" ht="15.75" spans="1:7">
+    <row r="416" ht="15.75" hidden="1" spans="1:7">
       <c r="A416" s="6" t="s">
         <v>3201</v>
       </c>
@@ -94160,7 +94183,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="417" ht="15.75" spans="1:7">
+    <row r="417" ht="15.75" hidden="1" spans="1:7">
       <c r="A417" s="4" t="s">
         <v>3034</v>
       </c>
@@ -94183,7 +94206,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="418" ht="15.75" spans="1:7">
+    <row r="418" ht="15.75" hidden="1" spans="1:7">
       <c r="A418" s="6" t="s">
         <v>4235</v>
       </c>
@@ -94206,7 +94229,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="419" ht="15.75" spans="1:7">
+    <row r="419" ht="15.75" hidden="1" spans="1:7">
       <c r="A419" s="4" t="s">
         <v>4688</v>
       </c>
@@ -94229,7 +94252,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="420" ht="15.75" spans="1:7">
+    <row r="420" ht="15.75" hidden="1" spans="1:7">
       <c r="A420" s="6" t="s">
         <v>4106</v>
       </c>
@@ -94252,7 +94275,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="421" ht="15.75" spans="1:7">
+    <row r="421" ht="15.75" hidden="1" spans="1:7">
       <c r="A421" s="4" t="s">
         <v>6588</v>
       </c>
@@ -94275,7 +94298,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="422" ht="15.75" spans="1:7">
+    <row r="422" ht="15.75" hidden="1" spans="1:7">
       <c r="A422" s="6" t="s">
         <v>5064</v>
       </c>
@@ -94319,7 +94342,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="424" ht="15.75" spans="1:7">
+    <row r="424" ht="15.75" hidden="1" spans="1:7">
       <c r="A424" s="6" t="s">
         <v>4175</v>
       </c>
@@ -94342,7 +94365,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="425" ht="15.75" spans="1:7">
+    <row r="425" ht="15.75" hidden="1" spans="1:7">
       <c r="A425" s="4" t="s">
         <v>3609</v>
       </c>
@@ -94365,7 +94388,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="426" ht="15.75" spans="1:7">
+    <row r="426" ht="15.75" hidden="1" spans="1:7">
       <c r="A426" s="6" t="s">
         <v>6589</v>
       </c>
@@ -94388,7 +94411,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="427" ht="15.75" spans="1:7">
+    <row r="427" ht="15.75" hidden="1" spans="1:7">
       <c r="A427" s="4" t="s">
         <v>3225</v>
       </c>
@@ -94411,7 +94434,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="428" ht="15.75" spans="1:7">
+    <row r="428" ht="15.75" hidden="1" spans="1:7">
       <c r="A428" s="6" t="s">
         <v>6590</v>
       </c>
@@ -94434,7 +94457,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="429" ht="15.75" spans="1:7">
+    <row r="429" ht="15.75" hidden="1" spans="1:7">
       <c r="A429" s="4" t="s">
         <v>6591</v>
       </c>
@@ -94457,7 +94480,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="430" ht="15.75" spans="1:7">
+    <row r="430" ht="15.75" hidden="1" spans="1:7">
       <c r="A430" s="6" t="s">
         <v>6592</v>
       </c>
@@ -94480,7 +94503,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="431" ht="15.75" spans="1:7">
+    <row r="431" ht="15.75" hidden="1" spans="1:7">
       <c r="A431" s="4" t="s">
         <v>6593</v>
       </c>
@@ -94503,7 +94526,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="432" ht="15.75" spans="1:7">
+    <row r="432" ht="15.75" hidden="1" spans="1:7">
       <c r="A432" s="6" t="s">
         <v>6594</v>
       </c>
@@ -94526,7 +94549,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="433" ht="15.75" spans="1:7">
+    <row r="433" ht="15.75" hidden="1" spans="1:7">
       <c r="A433" s="4" t="s">
         <v>4143</v>
       </c>
@@ -94549,7 +94572,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="434" ht="15.75" spans="1:7">
+    <row r="434" ht="15.75" hidden="1" spans="1:7">
       <c r="A434" s="6" t="s">
         <v>4125</v>
       </c>
@@ -94593,7 +94616,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="436" ht="15.75" spans="1:7">
+    <row r="436" ht="15.75" hidden="1" spans="1:7">
       <c r="A436" s="6" t="s">
         <v>6596</v>
       </c>
@@ -94616,7 +94639,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="437" ht="15.75" spans="1:7">
+    <row r="437" ht="15.75" hidden="1" spans="1:7">
       <c r="A437" s="4" t="s">
         <v>6597</v>
       </c>
@@ -94639,7 +94662,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="438" ht="15.75" spans="1:7">
+    <row r="438" ht="15.75" hidden="1" spans="1:7">
       <c r="A438" s="6" t="s">
         <v>2656</v>
       </c>
@@ -94662,7 +94685,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="439" ht="15.75" spans="1:7">
+    <row r="439" ht="15.75" hidden="1" spans="1:7">
       <c r="A439" s="4" t="s">
         <v>3249</v>
       </c>
@@ -94727,7 +94750,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="442" ht="15.75" spans="1:7">
+    <row r="442" ht="15.75" hidden="1" spans="1:7">
       <c r="A442" s="6" t="s">
         <v>3898</v>
       </c>
@@ -94771,7 +94794,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="444" ht="15.75" spans="1:7">
+    <row r="444" ht="15.75" hidden="1" spans="1:7">
       <c r="A444" s="6" t="s">
         <v>4289</v>
       </c>
@@ -94794,7 +94817,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="445" ht="15.75" spans="1:7">
+    <row r="445" ht="15.75" hidden="1" spans="1:7">
       <c r="A445" s="4" t="s">
         <v>6598</v>
       </c>
@@ -94817,7 +94840,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="446" ht="15.75" spans="1:7">
+    <row r="446" ht="15.75" hidden="1" spans="1:7">
       <c r="A446" s="6" t="s">
         <v>6599</v>
       </c>
@@ -94840,7 +94863,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="447" ht="15.75" spans="1:7">
+    <row r="447" ht="15.75" hidden="1" spans="1:7">
       <c r="A447" s="4" t="s">
         <v>2611</v>
       </c>
@@ -94863,7 +94886,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="448" ht="15.75" spans="1:7">
+    <row r="448" ht="15.75" hidden="1" spans="1:7">
       <c r="A448" s="6" t="s">
         <v>4131</v>
       </c>
@@ -94886,7 +94909,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="449" ht="15.75" spans="1:7">
+    <row r="449" ht="15.75" hidden="1" spans="1:7">
       <c r="A449" s="4" t="s">
         <v>4916</v>
       </c>
@@ -94909,7 +94932,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="450" ht="15.75" spans="1:7">
+    <row r="450" ht="15.75" hidden="1" spans="1:7">
       <c r="A450" s="6" t="s">
         <v>4137</v>
       </c>
@@ -94932,7 +94955,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="451" ht="15.75" spans="1:7">
+    <row r="451" ht="15.75" hidden="1" spans="1:7">
       <c r="A451" s="4" t="s">
         <v>6600</v>
       </c>
@@ -94955,7 +94978,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="452" ht="15.75" spans="1:7">
+    <row r="452" ht="15.75" hidden="1" spans="1:7">
       <c r="A452" s="6" t="s">
         <v>3501</v>
       </c>
@@ -94978,7 +95001,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="453" ht="15.75" spans="1:7">
+    <row r="453" ht="15.75" hidden="1" spans="1:7">
       <c r="A453" s="4" t="s">
         <v>4199</v>
       </c>
@@ -95022,7 +95045,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="455" ht="15.75" spans="1:7">
+    <row r="455" ht="15.75" hidden="1" spans="1:7">
       <c r="A455" s="4" t="s">
         <v>3219</v>
       </c>
@@ -95045,7 +95068,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="456" ht="15.75" spans="1:7">
+    <row r="456" ht="15.75" hidden="1" spans="1:7">
       <c r="A456" s="6" t="s">
         <v>6601</v>
       </c>
@@ -95068,7 +95091,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="457" ht="15.75" spans="1:7">
+    <row r="457" ht="15.75" hidden="1" spans="1:7">
       <c r="A457" s="4" t="s">
         <v>3489</v>
       </c>
@@ -95091,7 +95114,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="458" ht="15.75" spans="1:7">
+    <row r="458" ht="15.75" hidden="1" spans="1:7">
       <c r="A458" s="6" t="s">
         <v>6602</v>
       </c>
@@ -95114,7 +95137,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="459" ht="15.75" spans="1:7">
+    <row r="459" ht="15.75" hidden="1" spans="1:7">
       <c r="A459" s="4" t="s">
         <v>3699</v>
       </c>
@@ -95158,7 +95181,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="461" ht="15.75" spans="1:7">
+    <row r="461" ht="15.75" hidden="1" spans="1:7">
       <c r="A461" s="4" t="s">
         <v>6604</v>
       </c>
@@ -95181,7 +95204,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="462" ht="15.75" spans="1:7">
+    <row r="462" ht="15.75" hidden="1" spans="1:7">
       <c r="A462" s="6" t="s">
         <v>6605</v>
       </c>
@@ -95204,7 +95227,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="463" ht="15.75" spans="1:7">
+    <row r="463" ht="15.75" hidden="1" spans="1:7">
       <c r="A463" s="4" t="s">
         <v>6606</v>
       </c>
@@ -95227,7 +95250,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="464" ht="15.75" spans="1:7">
+    <row r="464" ht="15.75" hidden="1" spans="1:7">
       <c r="A464" s="6" t="s">
         <v>6607</v>
       </c>
@@ -95250,7 +95273,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="465" ht="15.75" spans="1:7">
+    <row r="465" ht="15.75" hidden="1" spans="1:7">
       <c r="A465" s="4" t="s">
         <v>4253</v>
       </c>
@@ -95273,7 +95296,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="466" ht="15.75" spans="1:7">
+    <row r="466" ht="15" spans="1:7">
       <c r="A466" s="6" t="s">
         <v>5973</v>
       </c>
@@ -95294,7 +95317,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="467" ht="15.75" spans="1:7">
+    <row r="467" ht="15.75" hidden="1" spans="1:7">
       <c r="A467" s="4" t="s">
         <v>4163</v>
       </c>
@@ -95317,7 +95340,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="468" ht="15.75" spans="1:7">
+    <row r="468" ht="15.75" hidden="1" spans="1:7">
       <c r="A468" s="6" t="s">
         <v>4898</v>
       </c>
@@ -95340,7 +95363,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="469" ht="15.75" spans="1:7">
+    <row r="469" ht="15.75" hidden="1" spans="1:7">
       <c r="A469" s="4" t="s">
         <v>6608</v>
       </c>
@@ -95363,7 +95386,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="470" ht="15.75" spans="1:7">
+    <row r="470" ht="15.75" hidden="1" spans="1:7">
       <c r="A470" s="6" t="s">
         <v>6609</v>
       </c>
@@ -95386,7 +95409,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="471" ht="15.75" spans="1:7">
+    <row r="471" ht="15.75" hidden="1" spans="1:7">
       <c r="A471" s="4" t="s">
         <v>4223</v>
       </c>
@@ -95409,7 +95432,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="472" ht="15.75" spans="1:7">
+    <row r="472" ht="15.75" hidden="1" spans="1:7">
       <c r="A472" s="6" t="s">
         <v>4390</v>
       </c>
@@ -95432,7 +95455,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="473" ht="15.75" spans="1:7">
+    <row r="473" ht="15.75" hidden="1" spans="1:7">
       <c r="A473" s="4" t="s">
         <v>3603</v>
       </c>
@@ -95455,7 +95478,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="474" ht="15.75" spans="1:7">
+    <row r="474" ht="15.75" hidden="1" spans="1:7">
       <c r="A474" s="6" t="s">
         <v>4590</v>
       </c>
@@ -95478,7 +95501,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="475" ht="15.75" spans="1:7">
+    <row r="475" ht="15.75" hidden="1" spans="1:7">
       <c r="A475" s="4" t="s">
         <v>4360</v>
       </c>
@@ -95501,7 +95524,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="476" ht="15.75" spans="1:7">
+    <row r="476" ht="15.75" hidden="1" spans="1:7">
       <c r="A476" s="6" t="s">
         <v>2692</v>
       </c>
@@ -95524,7 +95547,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="477" ht="15.75" spans="1:7">
+    <row r="477" ht="15.75" hidden="1" spans="1:7">
       <c r="A477" s="4" t="s">
         <v>3591</v>
       </c>
@@ -95547,7 +95570,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="478" ht="15" spans="1:7">
+    <row r="478" ht="15" hidden="1" spans="1:7">
       <c r="A478" s="6" t="s">
         <v>6610</v>
       </c>
@@ -95571,6 +95594,12 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G478" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="3">
+      <filters blank="1"/>
+    </filterColumn>
+    <extLst/>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="一諾中學(九龍塘)" tooltip="https://www.schooland.hk/ss/inno"/>
     <hyperlink ref="A3" r:id="rId2" display="上水官立中學" tooltip="https://www.schooland.hk/ss/ssgss"/>
